--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7127,28 +7127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5875.030420098174</v>
+        <v>6083.149422480647</v>
       </c>
       <c r="AB2" t="n">
-        <v>8038.47580882834</v>
+        <v>8323.233409450439</v>
       </c>
       <c r="AC2" t="n">
-        <v>7271.294959705115</v>
+        <v>7528.875694583634</v>
       </c>
       <c r="AD2" t="n">
-        <v>5875030.420098173</v>
+        <v>6083149.422480647</v>
       </c>
       <c r="AE2" t="n">
-        <v>8038475.80882834</v>
+        <v>8323233.409450439</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.383485497575042e-07</v>
+        <v>9.101049341749583e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.63671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>7271294.959705114</v>
+        <v>7528875.694583634</v>
       </c>
     </row>
     <row r="3">
@@ -7233,28 +7233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2780.023248021755</v>
+        <v>2915.240860972162</v>
       </c>
       <c r="AB3" t="n">
-        <v>3803.750453913367</v>
+        <v>3988.761157332193</v>
       </c>
       <c r="AC3" t="n">
-        <v>3440.725849189022</v>
+        <v>3608.079390737702</v>
       </c>
       <c r="AD3" t="n">
-        <v>2780023.248021754</v>
+        <v>2915240.860972162</v>
       </c>
       <c r="AE3" t="n">
-        <v>3803750.453913366</v>
+        <v>3988761.157332193</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.50844664228258e-07</v>
+        <v>1.438395120557821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.81293402777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3440725.849189023</v>
+        <v>3608079.390737702</v>
       </c>
     </row>
     <row r="4">
@@ -7339,28 +7339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2257.920367275605</v>
+        <v>2372.394352671423</v>
       </c>
       <c r="AB4" t="n">
-        <v>3089.386258922972</v>
+        <v>3246.014615977347</v>
       </c>
       <c r="AC4" t="n">
-        <v>2794.539570352094</v>
+        <v>2936.219536838473</v>
       </c>
       <c r="AD4" t="n">
-        <v>2257920.367275605</v>
+        <v>2372394.352671423</v>
       </c>
       <c r="AE4" t="n">
-        <v>3089386.258922972</v>
+        <v>3246014.615977347</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.711934815431077e-07</v>
+        <v>1.641850767479694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.86154513888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2794539.570352094</v>
+        <v>2936219.536838473</v>
       </c>
     </row>
     <row r="5">
@@ -7445,28 +7445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2046.224428160188</v>
+        <v>2150.369270205996</v>
       </c>
       <c r="AB5" t="n">
-        <v>2799.734535659387</v>
+        <v>2942.230103092626</v>
       </c>
       <c r="AC5" t="n">
-        <v>2532.531801028155</v>
+        <v>2661.42779149935</v>
       </c>
       <c r="AD5" t="n">
-        <v>2046224.428160188</v>
+        <v>2150369.270205996</v>
       </c>
       <c r="AE5" t="n">
-        <v>2799734.535659387</v>
+        <v>2942230.103092627</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034682384393455e-06</v>
+        <v>1.749181907826377e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2532531.801028155</v>
+        <v>2661427.79149935</v>
       </c>
     </row>
     <row r="6">
@@ -7551,28 +7551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1920.585533025153</v>
+        <v>2024.64503421639</v>
       </c>
       <c r="AB6" t="n">
-        <v>2627.82985653877</v>
+        <v>2770.208656849812</v>
       </c>
       <c r="AC6" t="n">
-        <v>2377.033463213077</v>
+        <v>2505.823830652334</v>
       </c>
       <c r="AD6" t="n">
-        <v>1920585.533025153</v>
+        <v>2024645.03421639</v>
       </c>
       <c r="AE6" t="n">
-        <v>2627829.85653877</v>
+        <v>2770208.656849812</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.075203242977353e-06</v>
+        <v>1.817684429753524e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.84548611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>2377033.463213077</v>
+        <v>2505823.830652334</v>
       </c>
     </row>
     <row r="7">
@@ -7657,28 +7657,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1847.53799627159</v>
+        <v>1941.183102766797</v>
       </c>
       <c r="AB7" t="n">
-        <v>2527.882994122665</v>
+        <v>2656.012360159931</v>
       </c>
       <c r="AC7" t="n">
-        <v>2286.625389069663</v>
+        <v>2402.526268243027</v>
       </c>
       <c r="AD7" t="n">
-        <v>1847537.99627159</v>
+        <v>1941183.102766797</v>
       </c>
       <c r="AE7" t="n">
-        <v>2527882.994122665</v>
+        <v>2656012.360159931</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.102186026688751e-06</v>
+        <v>1.863300164400864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.38324652777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2286625.389069663</v>
+        <v>2402526.268243027</v>
       </c>
     </row>
     <row r="8">
@@ -7763,28 +7763,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1793.630774385509</v>
+        <v>1887.275880880716</v>
       </c>
       <c r="AB8" t="n">
-        <v>2454.124754919346</v>
+        <v>2582.254120956612</v>
       </c>
       <c r="AC8" t="n">
-        <v>2219.90653269557</v>
+        <v>2335.807411868934</v>
       </c>
       <c r="AD8" t="n">
-        <v>1793630.774385509</v>
+        <v>1887275.880880716</v>
       </c>
       <c r="AE8" t="n">
-        <v>2454124.754919346</v>
+        <v>2582254.120956612</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.122259723913493e-06</v>
+        <v>1.897235745539888e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.05338541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2219906.53269557</v>
+        <v>2335807.411868934</v>
       </c>
     </row>
     <row r="9">
@@ -7869,28 +7869,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1743.373523809963</v>
+        <v>1837.103881651191</v>
       </c>
       <c r="AB9" t="n">
-        <v>2385.360567488471</v>
+        <v>2513.606578178386</v>
       </c>
       <c r="AC9" t="n">
-        <v>2157.705102801954</v>
+        <v>2273.71149422603</v>
       </c>
       <c r="AD9" t="n">
-        <v>1743373.523809963</v>
+        <v>1837103.881651191</v>
       </c>
       <c r="AE9" t="n">
-        <v>2385360.567488471</v>
+        <v>2513606.578178386</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.137104923256442e-06</v>
+        <v>1.92233229159154e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.81901041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2157705.102801954</v>
+        <v>2273711.49422603</v>
       </c>
     </row>
     <row r="10">
@@ -7975,28 +7975,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1710.519417714989</v>
+        <v>1804.249775556217</v>
       </c>
       <c r="AB10" t="n">
-        <v>2340.408130108461</v>
+        <v>2468.654140798376</v>
       </c>
       <c r="AC10" t="n">
-        <v>2117.04286295435</v>
+        <v>2233.049254378426</v>
       </c>
       <c r="AD10" t="n">
-        <v>1710519.41771499</v>
+        <v>1804249.775556217</v>
       </c>
       <c r="AE10" t="n">
-        <v>2340408.130108461</v>
+        <v>2468654.140798376</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.149149141591287e-06</v>
+        <v>1.942693640274954e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.63237847222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>2117042.86295435</v>
+        <v>2233049.254378426</v>
       </c>
     </row>
     <row r="11">
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1682.252871064972</v>
+        <v>1775.812636705607</v>
       </c>
       <c r="AB11" t="n">
-        <v>2301.732593949881</v>
+        <v>2429.745192864949</v>
       </c>
       <c r="AC11" t="n">
-        <v>2082.058465685288</v>
+        <v>2197.853721826713</v>
       </c>
       <c r="AD11" t="n">
-        <v>1682252.871064972</v>
+        <v>1775812.636705607</v>
       </c>
       <c r="AE11" t="n">
-        <v>2301732.59394988</v>
+        <v>2429745.192864949</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.158859209086046e-06</v>
+        <v>1.959108991151506e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.48480902777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>2082058.465685288</v>
+        <v>2197853.721826714</v>
       </c>
     </row>
     <row r="12">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1660.39611459987</v>
+        <v>1753.955880240505</v>
       </c>
       <c r="AB12" t="n">
-        <v>2271.827215502286</v>
+        <v>2399.839814417354</v>
       </c>
       <c r="AC12" t="n">
-        <v>2055.00721458427</v>
+        <v>2170.802470725695</v>
       </c>
       <c r="AD12" t="n">
-        <v>1660396.11459987</v>
+        <v>1753955.880240505</v>
       </c>
       <c r="AE12" t="n">
-        <v>2271827.215502286</v>
+        <v>2399839.814417354</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.166421857807926e-06</v>
+        <v>1.971894024045743e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2055007.21458427</v>
+        <v>2170802.470725696</v>
       </c>
     </row>
     <row r="13">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1637.531428087553</v>
+        <v>1731.091193728189</v>
       </c>
       <c r="AB13" t="n">
-        <v>2240.542742697358</v>
+        <v>2368.555341612426</v>
       </c>
       <c r="AC13" t="n">
-        <v>2026.708487955811</v>
+        <v>2142.503744097236</v>
       </c>
       <c r="AD13" t="n">
-        <v>1637531.428087553</v>
+        <v>1731091.193728189</v>
       </c>
       <c r="AE13" t="n">
-        <v>2240542.742697358</v>
+        <v>2368555.341612426</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.173424310328185e-06</v>
+        <v>1.983732017466333e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.265625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2026708.487955811</v>
+        <v>2142503.744097236</v>
       </c>
     </row>
     <row r="14">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1620.045297389069</v>
+        <v>1713.605063029704</v>
       </c>
       <c r="AB14" t="n">
-        <v>2216.617447242049</v>
+        <v>2344.630046157118</v>
       </c>
       <c r="AC14" t="n">
-        <v>2005.066589119395</v>
+        <v>2120.861845260819</v>
       </c>
       <c r="AD14" t="n">
-        <v>1620045.297389069</v>
+        <v>1713605.063029704</v>
       </c>
       <c r="AE14" t="n">
-        <v>2216617.44724205</v>
+        <v>2344630.046157118</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.178279344075564e-06</v>
+        <v>1.991939692904609e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.19618055555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>2005066.589119395</v>
+        <v>2120861.845260819</v>
       </c>
     </row>
     <row r="15">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1601.817326259465</v>
+        <v>1685.133289404663</v>
       </c>
       <c r="AB15" t="n">
-        <v>2191.677132981195</v>
+        <v>2305.673709397334</v>
       </c>
       <c r="AC15" t="n">
-        <v>1982.506543447644</v>
+        <v>2085.623446605827</v>
       </c>
       <c r="AD15" t="n">
-        <v>1601817.326259465</v>
+        <v>1685133.289404663</v>
       </c>
       <c r="AE15" t="n">
-        <v>2191677.132981195</v>
+        <v>2305673.709397334</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.183507841957358e-06</v>
+        <v>2.000778727991983e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.12022569444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1982506.543447644</v>
+        <v>2085623.446605827</v>
       </c>
     </row>
     <row r="16">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1585.395276851716</v>
+        <v>1668.711239996913</v>
       </c>
       <c r="AB16" t="n">
-        <v>2169.207760491824</v>
+        <v>2283.204336907964</v>
       </c>
       <c r="AC16" t="n">
-        <v>1962.181616332697</v>
+        <v>2065.29851949088</v>
       </c>
       <c r="AD16" t="n">
-        <v>1585395.276851716</v>
+        <v>1668711.239996914</v>
       </c>
       <c r="AE16" t="n">
-        <v>2169207.760491824</v>
+        <v>2283204.336907964</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.187989411570323e-06</v>
+        <v>2.00835504378116e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.05512152777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1962181.616332697</v>
+        <v>2065298.51949088</v>
       </c>
     </row>
     <row r="17">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1569.605429582351</v>
+        <v>1652.921392727548</v>
       </c>
       <c r="AB17" t="n">
-        <v>2147.603394858981</v>
+        <v>2261.59997127512</v>
       </c>
       <c r="AC17" t="n">
-        <v>1942.639141033935</v>
+        <v>2045.756044192118</v>
       </c>
       <c r="AD17" t="n">
-        <v>1569605.429582351</v>
+        <v>1652921.392727548</v>
       </c>
       <c r="AE17" t="n">
-        <v>2147603.394858981</v>
+        <v>2261599.971275121</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.191257222746444e-06</v>
+        <v>2.013879440710769e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.00954861111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>1942639.141033935</v>
+        <v>2045756.044192118</v>
       </c>
     </row>
     <row r="18">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1543.762286247242</v>
+        <v>1637.407303233898</v>
       </c>
       <c r="AB18" t="n">
-        <v>2112.243666028867</v>
+        <v>2240.372909596584</v>
       </c>
       <c r="AC18" t="n">
-        <v>1910.654095095676</v>
+        <v>2026.554863487813</v>
       </c>
       <c r="AD18" t="n">
-        <v>1543762.286247242</v>
+        <v>1637407.303233898</v>
       </c>
       <c r="AE18" t="n">
-        <v>2112243.666028867</v>
+        <v>2240372.909596584</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.195178596157789e-06</v>
+        <v>2.020508717026299e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH18" t="n">
-        <v>1910654.095095675</v>
+        <v>2026554.863487813</v>
       </c>
     </row>
     <row r="19">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1529.267670542175</v>
+        <v>1622.91268752883</v>
       </c>
       <c r="AB19" t="n">
-        <v>2092.411493363879</v>
+        <v>2220.540736931596</v>
       </c>
       <c r="AC19" t="n">
-        <v>1892.714677155205</v>
+        <v>2008.615445547342</v>
       </c>
       <c r="AD19" t="n">
-        <v>1529267.670542174</v>
+        <v>1622912.68752883</v>
       </c>
       <c r="AE19" t="n">
-        <v>2092411.493363879</v>
+        <v>2220540.736931596</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.19872650543472e-06</v>
+        <v>2.026506633692732e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.90321180555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>1892714.677155205</v>
+        <v>2008615.445547342</v>
       </c>
     </row>
     <row r="20">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1516.602411632596</v>
+        <v>1610.247428619252</v>
       </c>
       <c r="AB20" t="n">
-        <v>2075.082327372005</v>
+        <v>2203.211570939723</v>
       </c>
       <c r="AC20" t="n">
-        <v>1877.039382443958</v>
+        <v>1992.940150836096</v>
       </c>
       <c r="AD20" t="n">
-        <v>1516602.411632596</v>
+        <v>1610247.428619252</v>
       </c>
       <c r="AE20" t="n">
-        <v>2075082.327372005</v>
+        <v>2203211.570939722</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.201247388342013e-06</v>
+        <v>2.030768311324144e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.86631944444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>1877039.382443958</v>
+        <v>1992940.150836096</v>
       </c>
     </row>
     <row r="21">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1504.967610585796</v>
+        <v>1598.612627572452</v>
       </c>
       <c r="AB21" t="n">
-        <v>2059.163079288578</v>
+        <v>2187.292322856295</v>
       </c>
       <c r="AC21" t="n">
-        <v>1862.639445054808</v>
+        <v>1978.540213446946</v>
       </c>
       <c r="AD21" t="n">
-        <v>1504967.610585796</v>
+        <v>1598612.627572452</v>
       </c>
       <c r="AE21" t="n">
-        <v>2059163.079288578</v>
+        <v>2187292.322856295</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.202927976946875e-06</v>
+        <v>2.033609429745085e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.84461805555556</v>
       </c>
       <c r="AH21" t="n">
-        <v>1862639.445054808</v>
+        <v>1978540.213446946</v>
       </c>
     </row>
     <row r="22">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1490.034307040362</v>
+        <v>1583.679324027018</v>
       </c>
       <c r="AB22" t="n">
-        <v>2038.730674566858</v>
+        <v>2166.859918134576</v>
       </c>
       <c r="AC22" t="n">
-        <v>1844.15708036267</v>
+        <v>1960.057848754807</v>
       </c>
       <c r="AD22" t="n">
-        <v>1490034.307040362</v>
+        <v>1583679.324027018</v>
       </c>
       <c r="AE22" t="n">
-        <v>2038730.674566858</v>
+        <v>2166859.918134576</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.205635591921376e-06</v>
+        <v>2.038186787201047e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>1844157.08036267</v>
+        <v>1960057.848754807</v>
       </c>
     </row>
     <row r="23">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1480.371627443147</v>
+        <v>1574.016644429803</v>
       </c>
       <c r="AB23" t="n">
-        <v>2025.509770054611</v>
+        <v>2153.639013622329</v>
       </c>
       <c r="AC23" t="n">
-        <v>1832.197960421415</v>
+        <v>1948.098728813552</v>
       </c>
       <c r="AD23" t="n">
-        <v>1480371.627443147</v>
+        <v>1574016.644429803</v>
       </c>
       <c r="AE23" t="n">
-        <v>2025509.770054611</v>
+        <v>2153639.013622329</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.206662618291014e-06</v>
+        <v>2.039923026236067e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.79036458333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1832197.960421415</v>
+        <v>1948098.728813553</v>
       </c>
     </row>
     <row r="24">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1468.006247531163</v>
+        <v>1561.651264517819</v>
       </c>
       <c r="AB24" t="n">
-        <v>2008.590911736974</v>
+        <v>2136.720155304692</v>
       </c>
       <c r="AC24" t="n">
-        <v>1816.893814195847</v>
+        <v>1932.794582587984</v>
       </c>
       <c r="AD24" t="n">
-        <v>1468006.247531163</v>
+        <v>1561651.264517819</v>
       </c>
       <c r="AE24" t="n">
-        <v>2008590.911736974</v>
+        <v>2136720.155304692</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.2089967691311e-06</v>
+        <v>2.04386902404293e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.75998263888889</v>
       </c>
       <c r="AH24" t="n">
-        <v>1816893.814195847</v>
+        <v>1932794.582587984</v>
       </c>
     </row>
     <row r="25">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1456.730428514886</v>
+        <v>1550.375445501542</v>
       </c>
       <c r="AB25" t="n">
-        <v>1993.162838704878</v>
+        <v>2121.292082272595</v>
       </c>
       <c r="AC25" t="n">
-        <v>1802.938174800498</v>
+        <v>1918.838943192635</v>
       </c>
       <c r="AD25" t="n">
-        <v>1456730.428514886</v>
+        <v>1550375.445501542</v>
       </c>
       <c r="AE25" t="n">
-        <v>1993162.838704878</v>
+        <v>2121292.082272595</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.210023795500738e-06</v>
+        <v>2.04560526307795e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>1802938.174800498</v>
+        <v>1918838.943192635</v>
       </c>
     </row>
     <row r="26">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1445.768503574708</v>
+        <v>1539.413520561364</v>
       </c>
       <c r="AB26" t="n">
-        <v>1978.164249395728</v>
+        <v>2106.293492963446</v>
       </c>
       <c r="AC26" t="n">
-        <v>1789.371029804361</v>
+        <v>1905.271798196498</v>
       </c>
       <c r="AD26" t="n">
-        <v>1445768.503574708</v>
+        <v>1539413.520561364</v>
       </c>
       <c r="AE26" t="n">
-        <v>1978164.249395728</v>
+        <v>2106293.492963446</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.211330919971186e-06</v>
+        <v>2.047815021849794e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.72743055555556</v>
       </c>
       <c r="AH26" t="n">
-        <v>1789371.029804361</v>
+        <v>1905271.798196498</v>
       </c>
     </row>
     <row r="27">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1446.259744455495</v>
+        <v>1539.904761442151</v>
       </c>
       <c r="AB27" t="n">
-        <v>1978.83638684084</v>
+        <v>2106.965630408557</v>
       </c>
       <c r="AC27" t="n">
-        <v>1789.979019395062</v>
+        <v>1905.879787787199</v>
       </c>
       <c r="AD27" t="n">
-        <v>1446259.744455495</v>
+        <v>1539904.761442151</v>
       </c>
       <c r="AE27" t="n">
-        <v>1978836.38684084</v>
+        <v>2106965.630408558</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.211984482206411e-06</v>
+        <v>2.048919901235715e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH27" t="n">
-        <v>1789979.019395062</v>
+        <v>1905879.787787199</v>
       </c>
     </row>
     <row r="28">
@@ -9883,28 +9883,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>1448.925552930966</v>
+        <v>1542.570569917622</v>
       </c>
       <c r="AB28" t="n">
-        <v>1982.483863604149</v>
+        <v>2110.613107171866</v>
       </c>
       <c r="AC28" t="n">
-        <v>1793.278386095346</v>
+        <v>1909.179154487484</v>
       </c>
       <c r="AD28" t="n">
-        <v>1448925.552930966</v>
+        <v>1542570.569917622</v>
       </c>
       <c r="AE28" t="n">
-        <v>1982483.863604149</v>
+        <v>2110613.107171867</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.212171214273617e-06</v>
+        <v>2.049235581060264e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>16.71440972222222</v>
       </c>
       <c r="AH28" t="n">
-        <v>1793278.386095346</v>
+        <v>1909179.154487484</v>
       </c>
     </row>
     <row r="29">
@@ -9989,28 +9989,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>1454.451790578618</v>
+        <v>1548.096807565274</v>
       </c>
       <c r="AB29" t="n">
-        <v>1990.045105754065</v>
+        <v>2118.174349321782</v>
       </c>
       <c r="AC29" t="n">
-        <v>1800.117993906744</v>
+        <v>1916.018762298881</v>
       </c>
       <c r="AD29" t="n">
-        <v>1454451.790578618</v>
+        <v>1548096.807565274</v>
       </c>
       <c r="AE29" t="n">
-        <v>1990045.105754065</v>
+        <v>2118174.349321782</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.212077848240014e-06</v>
+        <v>2.04907774114799e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16.71657986111111</v>
       </c>
       <c r="AH29" t="n">
-        <v>1800117.993906744</v>
+        <v>1916018.762298882</v>
       </c>
     </row>
     <row r="30">
@@ -10095,28 +10095,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>1458.482353337267</v>
+        <v>1552.127370323923</v>
       </c>
       <c r="AB30" t="n">
-        <v>1995.559899536328</v>
+        <v>2123.689143104045</v>
       </c>
       <c r="AC30" t="n">
-        <v>1805.106463510489</v>
+        <v>1921.007231902627</v>
       </c>
       <c r="AD30" t="n">
-        <v>1458482.353337267</v>
+        <v>1552127.370323923</v>
       </c>
       <c r="AE30" t="n">
-        <v>1995559.899536328</v>
+        <v>2123689.143104045</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.212171214273617e-06</v>
+        <v>2.049235581060264e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16.71657986111111</v>
       </c>
       <c r="AH30" t="n">
-        <v>1805106.46351049</v>
+        <v>1921007.231902627</v>
       </c>
     </row>
     <row r="31">
@@ -10201,28 +10201,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>1464.596251934372</v>
+        <v>1558.241268921028</v>
       </c>
       <c r="AB31" t="n">
-        <v>2003.925205323057</v>
+        <v>2132.054448890774</v>
       </c>
       <c r="AC31" t="n">
-        <v>1812.673396253713</v>
+        <v>1928.574164645851</v>
       </c>
       <c r="AD31" t="n">
-        <v>1464596.251934372</v>
+        <v>1558241.268921028</v>
       </c>
       <c r="AE31" t="n">
-        <v>2003925.205323057</v>
+        <v>2132054.448890774</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.212077848240014e-06</v>
+        <v>2.04907774114799e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>16.71657986111111</v>
       </c>
       <c r="AH31" t="n">
-        <v>1812673.396253713</v>
+        <v>1928574.164645851</v>
       </c>
     </row>
   </sheetData>
@@ -10498,28 +10498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4072.83427879179</v>
+        <v>4244.203250428269</v>
       </c>
       <c r="AB2" t="n">
-        <v>5572.631541010393</v>
+        <v>5807.106128268889</v>
       </c>
       <c r="AC2" t="n">
-        <v>5040.787407973641</v>
+        <v>5252.884069711326</v>
       </c>
       <c r="AD2" t="n">
-        <v>4072834.278791789</v>
+        <v>4244203.250428269</v>
       </c>
       <c r="AE2" t="n">
-        <v>5572631.541010393</v>
+        <v>5807106.128268889</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.598745647411822e-07</v>
+        <v>1.1427648372856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.76215277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>5040787.407973642</v>
+        <v>5252884.069711327</v>
       </c>
     </row>
     <row r="3">
@@ -10604,28 +10604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2245.810132354011</v>
+        <v>2356.721127290452</v>
       </c>
       <c r="AB3" t="n">
-        <v>3072.816501237389</v>
+        <v>3224.569817557199</v>
       </c>
       <c r="AC3" t="n">
-        <v>2779.551207084222</v>
+        <v>2916.821399881581</v>
       </c>
       <c r="AD3" t="n">
-        <v>2245810.132354011</v>
+        <v>2356721.127290452</v>
       </c>
       <c r="AE3" t="n">
-        <v>3072816.501237389</v>
+        <v>3224569.817557199</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.497287170813881e-07</v>
+        <v>1.644731651790004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.0703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2779551.207084222</v>
+        <v>2916821.399881581</v>
       </c>
     </row>
     <row r="4">
@@ -10710,28 +10710,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1879.98466377563</v>
+        <v>1990.810228348948</v>
       </c>
       <c r="AB4" t="n">
-        <v>2572.277956047636</v>
+        <v>2723.914382775691</v>
       </c>
       <c r="AC4" t="n">
-        <v>2326.783358137235</v>
+        <v>2463.947817121425</v>
       </c>
       <c r="AD4" t="n">
-        <v>1879984.66377563</v>
+        <v>1990810.228348948</v>
       </c>
       <c r="AE4" t="n">
-        <v>2572277.956047636</v>
+        <v>2723914.382775691</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.057615117669196e-06</v>
+        <v>1.831568350157688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2326783.358137235</v>
+        <v>2463947.817121426</v>
       </c>
     </row>
     <row r="5">
@@ -10816,28 +10816,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1722.595598175071</v>
+        <v>1823.4159357591</v>
       </c>
       <c r="AB5" t="n">
-        <v>2356.931292977426</v>
+        <v>2494.878126739274</v>
       </c>
       <c r="AC5" t="n">
-        <v>2131.989078349506</v>
+        <v>2256.77045990672</v>
       </c>
       <c r="AD5" t="n">
-        <v>1722595.598175071</v>
+        <v>1823415.9357591</v>
       </c>
       <c r="AE5" t="n">
-        <v>2356931.292977426</v>
+        <v>2494878.126739274</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.114600772411189e-06</v>
+        <v>1.930255594595408e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.80425347222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2131989.078349506</v>
+        <v>2256770.45990672</v>
       </c>
     </row>
     <row r="6">
@@ -10922,28 +10922,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1640.07549078913</v>
+        <v>1730.805350037851</v>
       </c>
       <c r="AB6" t="n">
-        <v>2244.023641521779</v>
+        <v>2368.164237664772</v>
       </c>
       <c r="AC6" t="n">
-        <v>2029.857174681902</v>
+        <v>2142.149966561428</v>
       </c>
       <c r="AD6" t="n">
-        <v>1640075.49078913</v>
+        <v>1730805.350037851</v>
       </c>
       <c r="AE6" t="n">
-        <v>2244023.641521779</v>
+        <v>2368164.237664772</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.148792165256385e-06</v>
+        <v>1.98946794125804e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.24652777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2029857.174681902</v>
+        <v>2142149.966561428</v>
       </c>
     </row>
     <row r="7">
@@ -11028,28 +11028,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1573.207554519007</v>
+        <v>1673.942551248465</v>
       </c>
       <c r="AB7" t="n">
-        <v>2152.531981111851</v>
+        <v>2290.3620477515</v>
       </c>
       <c r="AC7" t="n">
-        <v>1947.097349932145</v>
+        <v>2071.773108457421</v>
       </c>
       <c r="AD7" t="n">
-        <v>1573207.554519007</v>
+        <v>1673942.551248465</v>
       </c>
       <c r="AE7" t="n">
-        <v>2152531.981111851</v>
+        <v>2290362.0477515</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.171779598864172e-06</v>
+        <v>2.02927737206512e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.88845486111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1947097.349932145</v>
+        <v>2071773.10845742</v>
       </c>
     </row>
     <row r="8">
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1530.850325253422</v>
+        <v>1621.665435848163</v>
       </c>
       <c r="AB8" t="n">
-        <v>2094.576951361606</v>
+        <v>2218.834192157247</v>
       </c>
       <c r="AC8" t="n">
-        <v>1894.673466880868</v>
+        <v>2007.071771011106</v>
       </c>
       <c r="AD8" t="n">
-        <v>1530850.325253422</v>
+        <v>1621665.435848163</v>
       </c>
       <c r="AE8" t="n">
-        <v>2094576.951361606</v>
+        <v>2218834.192157247</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.18887529528677e-06</v>
+        <v>2.058883545396436e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1894673.466880868</v>
+        <v>2007071.771011106</v>
       </c>
     </row>
     <row r="9">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1494.820987141402</v>
+        <v>1585.465505535551</v>
       </c>
       <c r="AB9" t="n">
-        <v>2045.280021454524</v>
+        <v>2169.303850475318</v>
       </c>
       <c r="AC9" t="n">
-        <v>1850.081366775442</v>
+        <v>1962.268535623029</v>
       </c>
       <c r="AD9" t="n">
-        <v>1494820.987141402</v>
+        <v>1585465.505535551</v>
       </c>
       <c r="AE9" t="n">
-        <v>2045280.021454524</v>
+        <v>2169303.850475318</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.202590486767046e-06</v>
+        <v>2.082635390667888e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.43055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1850081.366775442</v>
+        <v>1962268.535623029</v>
       </c>
     </row>
     <row r="10">
@@ -11346,28 +11346,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1466.14672590299</v>
+        <v>1556.791244297139</v>
       </c>
       <c r="AB10" t="n">
-        <v>2006.046632209004</v>
+        <v>2130.070461229798</v>
       </c>
       <c r="AC10" t="n">
-        <v>1814.592357135107</v>
+        <v>1926.779525982694</v>
       </c>
       <c r="AD10" t="n">
-        <v>1466146.72590299</v>
+        <v>1556791.244297139</v>
       </c>
       <c r="AE10" t="n">
-        <v>2006046.632209004</v>
+        <v>2130070.461229798</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.212925173305001e-06</v>
+        <v>2.100532907879474e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.28081597222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1814592.357135107</v>
+        <v>1926779.525982694</v>
       </c>
     </row>
     <row r="11">
@@ -11452,28 +11452,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1441.460897642526</v>
+        <v>1532.105416036675</v>
       </c>
       <c r="AB11" t="n">
-        <v>1972.270392921156</v>
+        <v>2096.29422194195</v>
       </c>
       <c r="AC11" t="n">
-        <v>1784.039674719641</v>
+        <v>1896.226843567228</v>
       </c>
       <c r="AD11" t="n">
-        <v>1441460.897642526</v>
+        <v>1532105.416036675</v>
       </c>
       <c r="AE11" t="n">
-        <v>1972270.392921156</v>
+        <v>2096294.22194195</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.220555455889098e-06</v>
+        <v>2.113746962643169e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.17230902777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1784039.674719641</v>
+        <v>1896226.843567228</v>
       </c>
     </row>
     <row r="12">
@@ -11558,28 +11558,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1416.273144947332</v>
+        <v>1496.997777206764</v>
       </c>
       <c r="AB12" t="n">
-        <v>1937.807398478367</v>
+        <v>2048.258401655152</v>
       </c>
       <c r="AC12" t="n">
-        <v>1752.865780097356</v>
+        <v>1852.775494549906</v>
       </c>
       <c r="AD12" t="n">
-        <v>1416273.144947332</v>
+        <v>1496997.777206764</v>
       </c>
       <c r="AE12" t="n">
-        <v>1937807.398478367</v>
+        <v>2048258.401655152</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.227895980906711e-06</v>
+        <v>2.126459217858875e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.0703125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1752865.780097357</v>
+        <v>1852775.494549906</v>
       </c>
     </row>
     <row r="13">
@@ -11664,28 +11664,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1387.131217412569</v>
+        <v>1477.860987152738</v>
       </c>
       <c r="AB13" t="n">
-        <v>1897.934127574198</v>
+        <v>2022.074601247641</v>
       </c>
       <c r="AC13" t="n">
-        <v>1716.797958205794</v>
+        <v>1829.090639304093</v>
       </c>
       <c r="AD13" t="n">
-        <v>1387131.217412568</v>
+        <v>1477860.987152738</v>
       </c>
       <c r="AE13" t="n">
-        <v>1897934.127574198</v>
+        <v>2022074.601247641</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.233497960525415e-06</v>
+        <v>2.136160675786651e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.9921875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1716797.958205794</v>
+        <v>1829090.639304093</v>
       </c>
     </row>
     <row r="14">
@@ -11770,28 +11770,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1368.949227481044</v>
+        <v>1459.678997221214</v>
       </c>
       <c r="AB14" t="n">
-        <v>1873.056726817102</v>
+        <v>1997.197200490546</v>
       </c>
       <c r="AC14" t="n">
-        <v>1694.294821661304</v>
+        <v>1806.587502759603</v>
       </c>
       <c r="AD14" t="n">
-        <v>1368949.227481044</v>
+        <v>1459678.997221214</v>
       </c>
       <c r="AE14" t="n">
-        <v>1873056.726817102</v>
+        <v>1997197.200490546</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.237457980600706e-06</v>
+        <v>2.143018602942493e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.93793402777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1694294.821661304</v>
+        <v>1806587.502759603</v>
       </c>
     </row>
     <row r="15">
@@ -11876,28 +11876,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1347.589348700645</v>
+        <v>1438.319118440814</v>
       </c>
       <c r="AB15" t="n">
-        <v>1843.831198338415</v>
+        <v>1967.971672011858</v>
       </c>
       <c r="AC15" t="n">
-        <v>1667.858536602336</v>
+        <v>1780.151217700635</v>
       </c>
       <c r="AD15" t="n">
-        <v>1347589.348700645</v>
+        <v>1438319.118440814</v>
       </c>
       <c r="AE15" t="n">
-        <v>1843831.198338415</v>
+        <v>1967971.672011858</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.242094101664462e-06</v>
+        <v>2.151047395710307e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1667858.536602336</v>
+        <v>1780151.217700635</v>
       </c>
     </row>
     <row r="16">
@@ -11982,28 +11982,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1329.183935616346</v>
+        <v>1419.913705356515</v>
       </c>
       <c r="AB16" t="n">
-        <v>1818.648100166959</v>
+        <v>1942.788573840402</v>
       </c>
       <c r="AC16" t="n">
-        <v>1645.078877975663</v>
+        <v>1757.371559073962</v>
       </c>
       <c r="AD16" t="n">
-        <v>1329183.935616346</v>
+        <v>1419913.705356515</v>
       </c>
       <c r="AE16" t="n">
-        <v>1818648.100166959</v>
+        <v>1942788.573840402</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.245571192462278e-06</v>
+        <v>2.157068990286168e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.82942708333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1645078.877975663</v>
+        <v>1757371.559073962</v>
       </c>
     </row>
     <row r="17">
@@ -12088,28 +12088,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1307.1520078224</v>
+        <v>1397.88177756257</v>
       </c>
       <c r="AB17" t="n">
-        <v>1788.503044579228</v>
+        <v>1912.643518252671</v>
       </c>
       <c r="AC17" t="n">
-        <v>1617.810824184374</v>
+        <v>1730.103505282673</v>
       </c>
       <c r="AD17" t="n">
-        <v>1307152.0078224</v>
+        <v>1397881.77756257</v>
       </c>
       <c r="AE17" t="n">
-        <v>1788503.044579228</v>
+        <v>1912643.518252671</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.24914486911559e-06</v>
+        <v>2.163257851378025e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.77951388888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1617810.824184374</v>
+        <v>1730103.505282673</v>
       </c>
     </row>
     <row r="18">
@@ -12194,28 +12194,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1290.834037135382</v>
+        <v>1381.563806875552</v>
       </c>
       <c r="AB18" t="n">
-        <v>1766.17607718719</v>
+        <v>1890.316550860633</v>
       </c>
       <c r="AC18" t="n">
-        <v>1597.614711224137</v>
+        <v>1709.907392322436</v>
       </c>
       <c r="AD18" t="n">
-        <v>1290834.037135382</v>
+        <v>1381563.806875552</v>
       </c>
       <c r="AE18" t="n">
-        <v>1766176.07718719</v>
+        <v>1890316.550860633</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.252428788202416e-06</v>
+        <v>2.168944912921894e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.73611111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>1597614.711224137</v>
+        <v>1709907.392322436</v>
       </c>
     </row>
     <row r="19">
@@ -12300,28 +12300,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1285.487054854116</v>
+        <v>1376.216824594286</v>
       </c>
       <c r="AB19" t="n">
-        <v>1758.860100137752</v>
+        <v>1883.000573811195</v>
       </c>
       <c r="AC19" t="n">
-        <v>1590.996960756259</v>
+        <v>1703.289641854558</v>
       </c>
       <c r="AD19" t="n">
-        <v>1285487.054854116</v>
+        <v>1376216.824594286</v>
       </c>
       <c r="AE19" t="n">
-        <v>1758860.100137752</v>
+        <v>1883000.573811195</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.253298060901871e-06</v>
+        <v>2.170450311565859e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.72309027777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>1590996.960756259</v>
+        <v>1703289.641854558</v>
       </c>
     </row>
     <row r="20">
@@ -12406,28 +12406,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1288.726241987847</v>
+        <v>1379.456011728017</v>
       </c>
       <c r="AB20" t="n">
-        <v>1763.292098876973</v>
+        <v>1887.432572550417</v>
       </c>
       <c r="AC20" t="n">
-        <v>1595.005975756158</v>
+        <v>1707.298656854458</v>
       </c>
       <c r="AD20" t="n">
-        <v>1288726.241987847</v>
+        <v>1379456.011728017</v>
       </c>
       <c r="AE20" t="n">
-        <v>1763292.098876973</v>
+        <v>1887432.572550417</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.253104889190881e-06</v>
+        <v>2.170115778533867e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.72743055555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>1595005.975756158</v>
+        <v>1707298.656854458</v>
       </c>
     </row>
     <row r="21">
@@ -12512,28 +12512,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1293.010653117351</v>
+        <v>1383.740422857521</v>
       </c>
       <c r="AB21" t="n">
-        <v>1769.15421919924</v>
+        <v>1893.294692872683</v>
       </c>
       <c r="AC21" t="n">
-        <v>1600.308623542405</v>
+        <v>1712.601304640704</v>
       </c>
       <c r="AD21" t="n">
-        <v>1293010.653117351</v>
+        <v>1383740.422857521</v>
       </c>
       <c r="AE21" t="n">
-        <v>1769154.21919924</v>
+        <v>1893294.692872683</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.252911717479891e-06</v>
+        <v>2.169781245501874e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.72960069444444</v>
       </c>
       <c r="AH21" t="n">
-        <v>1600308.623542405</v>
+        <v>1712601.304640704</v>
       </c>
     </row>
     <row r="22">
@@ -12618,28 +12618,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1298.466176091755</v>
+        <v>1389.195945831925</v>
       </c>
       <c r="AB22" t="n">
-        <v>1776.618706413507</v>
+        <v>1900.75918008695</v>
       </c>
       <c r="AC22" t="n">
-        <v>1607.060710573416</v>
+        <v>1719.353391671716</v>
       </c>
       <c r="AD22" t="n">
-        <v>1298466.176091755</v>
+        <v>1389195.945831925</v>
       </c>
       <c r="AE22" t="n">
-        <v>1776618.706413507</v>
+        <v>1900759.180086951</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.253008303335386e-06</v>
+        <v>2.16994851201787e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.72743055555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>1607060.710573416</v>
+        <v>1719353.391671716</v>
       </c>
     </row>
   </sheetData>
@@ -12915,28 +12915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1627.567342428091</v>
+        <v>1727.751112821939</v>
       </c>
       <c r="AB2" t="n">
-        <v>2226.909441113645</v>
+        <v>2363.985295562525</v>
       </c>
       <c r="AC2" t="n">
-        <v>2014.376329540789</v>
+        <v>2138.369856828238</v>
       </c>
       <c r="AD2" t="n">
-        <v>1627567.342428091</v>
+        <v>1727751.112821939</v>
       </c>
       <c r="AE2" t="n">
-        <v>2226909.441113645</v>
+        <v>2363985.295562525</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.046933580435833e-06</v>
+        <v>1.981023623528153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.33940972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2014376.329540789</v>
+        <v>2138369.856828238</v>
       </c>
     </row>
     <row r="3">
@@ -13021,28 +13021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1187.079624290332</v>
+        <v>1278.147939562913</v>
       </c>
       <c r="AB3" t="n">
-        <v>1624.214712210948</v>
+        <v>1748.818398817413</v>
       </c>
       <c r="AC3" t="n">
-        <v>1469.2019396772</v>
+        <v>1581.913625316317</v>
       </c>
       <c r="AD3" t="n">
-        <v>1187079.624290331</v>
+        <v>1278147.939562913</v>
       </c>
       <c r="AE3" t="n">
-        <v>1624214.712210948</v>
+        <v>1748818.398817413</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.248258670847006e-06</v>
+        <v>2.361974017675835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.73697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1469201.939677201</v>
+        <v>1581913.625316317</v>
       </c>
     </row>
     <row r="4">
@@ -13127,28 +13127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1057.428415566124</v>
+        <v>1139.466706080563</v>
       </c>
       <c r="AB4" t="n">
-        <v>1446.820208626843</v>
+        <v>1559.068616982639</v>
       </c>
       <c r="AC4" t="n">
-        <v>1308.737718540413</v>
+        <v>1410.273296344363</v>
       </c>
       <c r="AD4" t="n">
-        <v>1057428.415566124</v>
+        <v>1139466.706080563</v>
       </c>
       <c r="AE4" t="n">
-        <v>1446820.208626843</v>
+        <v>1559068.61698264</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.319390662105771e-06</v>
+        <v>2.496571052010669e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.72786458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1308737.718540413</v>
+        <v>1410273.296344363</v>
       </c>
     </row>
     <row r="5">
@@ -13233,28 +13233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>989.8472514764209</v>
+        <v>1071.714949790267</v>
       </c>
       <c r="AB5" t="n">
-        <v>1354.352678448773</v>
+        <v>1466.367675029722</v>
       </c>
       <c r="AC5" t="n">
-        <v>1225.095159663544</v>
+        <v>1326.419602184842</v>
       </c>
       <c r="AD5" t="n">
-        <v>989847.2514764209</v>
+        <v>1071714.949790267</v>
       </c>
       <c r="AE5" t="n">
-        <v>1354352.678448773</v>
+        <v>1466367.675029722</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.354741106246491e-06</v>
+        <v>2.563461699377072e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.26345486111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1225095.159663544</v>
+        <v>1326419.602184843</v>
       </c>
     </row>
     <row r="6">
@@ -13339,28 +13339,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>940.5178025691608</v>
+        <v>1013.440816979435</v>
       </c>
       <c r="AB6" t="n">
-        <v>1286.857950192167</v>
+        <v>1386.634435644645</v>
       </c>
       <c r="AC6" t="n">
-        <v>1164.042033542302</v>
+        <v>1254.295991260373</v>
       </c>
       <c r="AD6" t="n">
-        <v>940517.8025691608</v>
+        <v>1013440.816979435</v>
       </c>
       <c r="AE6" t="n">
-        <v>1286857.950192167</v>
+        <v>1386634.435644645</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.375434049158132e-06</v>
+        <v>2.602617200274478e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.00520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1164042.033542302</v>
+        <v>1254295.991260373</v>
       </c>
     </row>
     <row r="7">
@@ -13445,28 +13445,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>930.1614216912035</v>
+        <v>1012.11437135107</v>
       </c>
       <c r="AB7" t="n">
-        <v>1272.687892983667</v>
+        <v>1384.819534217265</v>
       </c>
       <c r="AC7" t="n">
-        <v>1151.224346705981</v>
+        <v>1252.654301477992</v>
       </c>
       <c r="AD7" t="n">
-        <v>930161.4216912035</v>
+        <v>1012114.37135107</v>
       </c>
       <c r="AE7" t="n">
-        <v>1272687.892983667</v>
+        <v>1384819.534217265</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.377589564044761e-06</v>
+        <v>2.606695898284624e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1151224.346705981</v>
+        <v>1252654.301477992</v>
       </c>
     </row>
     <row r="8">
@@ -13551,28 +13551,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>936.8243932409275</v>
+        <v>1018.777342900794</v>
       </c>
       <c r="AB8" t="n">
-        <v>1281.804464607558</v>
+        <v>1393.936105841157</v>
       </c>
       <c r="AC8" t="n">
-        <v>1159.470845529277</v>
+        <v>1260.900800301288</v>
       </c>
       <c r="AD8" t="n">
-        <v>936824.3932409275</v>
+        <v>1018777.342900794</v>
       </c>
       <c r="AE8" t="n">
-        <v>1281804.464607558</v>
+        <v>1393936.105841157</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.37748178830043e-06</v>
+        <v>2.606491963384117e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1159470.845529277</v>
+        <v>1260900.800301288</v>
       </c>
     </row>
   </sheetData>
@@ -13848,28 +13848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2293.67420403206</v>
+        <v>2416.959811958111</v>
       </c>
       <c r="AB2" t="n">
-        <v>3138.306235721112</v>
+        <v>3306.9910434627</v>
       </c>
       <c r="AC2" t="n">
-        <v>2838.790693224235</v>
+        <v>2991.376459665575</v>
       </c>
       <c r="AD2" t="n">
-        <v>2293674.20403206</v>
+        <v>2416959.81195811</v>
       </c>
       <c r="AE2" t="n">
-        <v>3138306.235721112</v>
+        <v>3306991.0434627</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.921730563757235e-07</v>
+        <v>1.625345551229262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.08029513888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2838790.693224235</v>
+        <v>2991376.459665575</v>
       </c>
     </row>
     <row r="3">
@@ -13954,28 +13954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1528.379616313734</v>
+        <v>1623.345924103459</v>
       </c>
       <c r="AB3" t="n">
-        <v>2091.19641839034</v>
+        <v>2221.133510326052</v>
       </c>
       <c r="AC3" t="n">
-        <v>1891.615567231772</v>
+        <v>2009.151645480994</v>
       </c>
       <c r="AD3" t="n">
-        <v>1528379.616313735</v>
+        <v>1623345.924103459</v>
       </c>
       <c r="AE3" t="n">
-        <v>2091196.41839034</v>
+        <v>2221133.510326052</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.131171917427258e-06</v>
+        <v>2.060749571540071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.78081597222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1891615.567231772</v>
+        <v>2009151.645480994</v>
       </c>
     </row>
     <row r="4">
@@ -14060,28 +14060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1347.544095223406</v>
+        <v>1432.928520888137</v>
       </c>
       <c r="AB4" t="n">
-        <v>1843.769280534413</v>
+        <v>1960.596018623905</v>
       </c>
       <c r="AC4" t="n">
-        <v>1667.802528146646</v>
+        <v>1773.479486320234</v>
       </c>
       <c r="AD4" t="n">
-        <v>1347544.095223406</v>
+        <v>1432928.520888137</v>
       </c>
       <c r="AE4" t="n">
-        <v>1843769.280534413</v>
+        <v>1960596.018623905</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.215306115278014e-06</v>
+        <v>2.214023808198234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1667802.528146646</v>
+        <v>1773479.486320234</v>
       </c>
     </row>
     <row r="5">
@@ -14166,28 +14166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1251.951772831124</v>
+        <v>1337.421449841876</v>
       </c>
       <c r="AB5" t="n">
-        <v>1712.975647801667</v>
+        <v>1829.919030543809</v>
       </c>
       <c r="AC5" t="n">
-        <v>1549.491656151897</v>
+        <v>1655.274126576197</v>
       </c>
       <c r="AD5" t="n">
-        <v>1251951.772831124</v>
+        <v>1337421.449841876</v>
       </c>
       <c r="AE5" t="n">
-        <v>1712975.647801667</v>
+        <v>1829919.030543809</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.258404270549602e-06</v>
+        <v>2.292539287270674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.77994791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1549491.656151897</v>
+        <v>1655274.126576197</v>
       </c>
     </row>
     <row r="6">
@@ -14272,28 +14272,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1194.609084330195</v>
+        <v>1279.908169140355</v>
       </c>
       <c r="AB6" t="n">
-        <v>1634.516851613822</v>
+        <v>1751.226822581116</v>
       </c>
       <c r="AC6" t="n">
-        <v>1478.520857354608</v>
+        <v>1584.092192496257</v>
       </c>
       <c r="AD6" t="n">
-        <v>1194609.084330195</v>
+        <v>1279908.169140355</v>
       </c>
       <c r="AE6" t="n">
-        <v>1634516.851613822</v>
+        <v>1751226.822581117</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.285624158089552e-06</v>
+        <v>2.342128010895374e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.40451388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1478520.857354608</v>
+        <v>1584092.192496256</v>
       </c>
     </row>
     <row r="7">
@@ -14378,28 +14378,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1151.225998406322</v>
+        <v>1236.525083216482</v>
       </c>
       <c r="AB7" t="n">
-        <v>1575.158199526107</v>
+        <v>1691.868170493401</v>
       </c>
       <c r="AC7" t="n">
-        <v>1424.827311711752</v>
+        <v>1530.398646853401</v>
       </c>
       <c r="AD7" t="n">
-        <v>1151225.998406322</v>
+        <v>1236525.083216482</v>
       </c>
       <c r="AE7" t="n">
-        <v>1575158.199526107</v>
+        <v>1691868.170493401</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.302842799071264e-06</v>
+        <v>2.373496635309483e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.17447916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1424827.311711752</v>
+        <v>1530398.646853401</v>
       </c>
     </row>
     <row r="8">
@@ -14484,28 +14484,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1113.971047264089</v>
+        <v>1189.94418300442</v>
       </c>
       <c r="AB8" t="n">
-        <v>1524.184331800856</v>
+        <v>1628.134127818975</v>
       </c>
       <c r="AC8" t="n">
-        <v>1378.718318379927</v>
+        <v>1472.747291760531</v>
       </c>
       <c r="AD8" t="n">
-        <v>1113971.047264089</v>
+        <v>1189944.18300442</v>
       </c>
       <c r="AE8" t="n">
-        <v>1524184.331800856</v>
+        <v>1628134.127818975</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.315112369591165e-06</v>
+        <v>2.395849128155465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1378718.318379927</v>
+        <v>1472747.291760531</v>
       </c>
     </row>
     <row r="9">
@@ -14590,28 +14590,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1070.862448080977</v>
+        <v>1156.246784237158</v>
       </c>
       <c r="AB9" t="n">
-        <v>1465.201244581351</v>
+        <v>1582.027860201295</v>
       </c>
       <c r="AC9" t="n">
-        <v>1325.364494221369</v>
+        <v>1431.04134161373</v>
       </c>
       <c r="AD9" t="n">
-        <v>1070862.448080977</v>
+        <v>1156246.784237158</v>
       </c>
       <c r="AE9" t="n">
-        <v>1465201.244581351</v>
+        <v>1582027.860201295</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.325938461226373e-06</v>
+        <v>2.415571915960743e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1325364.494221369</v>
+        <v>1431041.34161373</v>
       </c>
     </row>
     <row r="10">
@@ -14696,28 +14696,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1057.985240350925</v>
+        <v>1143.369576507105</v>
       </c>
       <c r="AB10" t="n">
-        <v>1447.582080862783</v>
+        <v>1564.408696482726</v>
       </c>
       <c r="AC10" t="n">
-        <v>1309.426878759449</v>
+        <v>1415.10372615181</v>
       </c>
       <c r="AD10" t="n">
-        <v>1057985.240350925</v>
+        <v>1143369.576507105</v>
       </c>
       <c r="AE10" t="n">
-        <v>1447582.080862783</v>
+        <v>1564408.696482726</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.328619207726519e-06</v>
+        <v>2.420455653893479e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.84027777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1309426.878759449</v>
+        <v>1415103.72615181</v>
       </c>
     </row>
     <row r="11">
@@ -14802,28 +14802,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1061.006000275261</v>
+        <v>1146.390336431441</v>
       </c>
       <c r="AB11" t="n">
-        <v>1451.715217857781</v>
+        <v>1568.541833477725</v>
       </c>
       <c r="AC11" t="n">
-        <v>1313.165554960539</v>
+        <v>1418.8424023529</v>
       </c>
       <c r="AD11" t="n">
-        <v>1061006.000275261</v>
+        <v>1146390.336431441</v>
       </c>
       <c r="AE11" t="n">
-        <v>1451715.217857781</v>
+        <v>1568541.833477725</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.330268897880456e-06</v>
+        <v>2.423461031082855e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.82074652777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1313165.554960539</v>
+        <v>1418842.4023529</v>
       </c>
     </row>
     <row r="12">
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1067.111437436687</v>
+        <v>1152.495773592868</v>
       </c>
       <c r="AB12" t="n">
-        <v>1460.068946334922</v>
+        <v>1576.895561954866</v>
       </c>
       <c r="AC12" t="n">
-        <v>1320.722015316353</v>
+        <v>1426.398862708715</v>
       </c>
       <c r="AD12" t="n">
-        <v>1067111.437436687</v>
+        <v>1152495.773592868</v>
       </c>
       <c r="AE12" t="n">
-        <v>1460068.946334922</v>
+        <v>1576895.561954866</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.330268897880456e-06</v>
+        <v>2.423461031082855e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.82074652777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1320722.015316353</v>
+        <v>1426398.862708715</v>
       </c>
     </row>
   </sheetData>
@@ -15205,28 +15205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1221.302448637135</v>
+        <v>1318.046257420304</v>
       </c>
       <c r="AB2" t="n">
-        <v>1671.039890286698</v>
+        <v>1803.40903749945</v>
       </c>
       <c r="AC2" t="n">
-        <v>1511.558188476951</v>
+        <v>1631.294210060983</v>
       </c>
       <c r="AD2" t="n">
-        <v>1221302.448637135</v>
+        <v>1318046.257420304</v>
       </c>
       <c r="AE2" t="n">
-        <v>1671039.890286698</v>
+        <v>1803409.03749945</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.177995299861581e-06</v>
+        <v>2.308491237092171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.62065972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1511558.188476951</v>
+        <v>1631294.210060983</v>
       </c>
     </row>
     <row r="3">
@@ -15311,28 +15311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>944.7395319129844</v>
+        <v>1023.87813027057</v>
       </c>
       <c r="AB3" t="n">
-        <v>1292.63430652994</v>
+        <v>1400.91522815134</v>
       </c>
       <c r="AC3" t="n">
-        <v>1169.267102538365</v>
+        <v>1267.213844973448</v>
       </c>
       <c r="AD3" t="n">
-        <v>944739.5319129843</v>
+        <v>1023878.13027057</v>
       </c>
       <c r="AE3" t="n">
-        <v>1292634.30652994</v>
+        <v>1400915.228151341</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.349366527920122e-06</v>
+        <v>2.644323628197085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.00130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1169267.102538365</v>
+        <v>1267213.844973448</v>
       </c>
     </row>
     <row r="4">
@@ -15417,28 +15417,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>842.3153537483455</v>
+        <v>921.3686112513591</v>
       </c>
       <c r="AB4" t="n">
-        <v>1152.49302732925</v>
+        <v>1260.657181828453</v>
       </c>
       <c r="AC4" t="n">
-        <v>1042.500710335068</v>
+        <v>1140.341829738212</v>
       </c>
       <c r="AD4" t="n">
-        <v>842315.3537483455</v>
+        <v>921368.6112513591</v>
       </c>
       <c r="AE4" t="n">
-        <v>1152493.02732925</v>
+        <v>1260657.181828453</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.406229090855287e-06</v>
+        <v>2.755755930405639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.27430555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1042500.710335068</v>
+        <v>1140341.829738212</v>
       </c>
     </row>
     <row r="5">
@@ -15523,28 +15523,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>838.2351855095469</v>
+        <v>917.2884430125606</v>
       </c>
       <c r="AB5" t="n">
-        <v>1146.910361140607</v>
+        <v>1255.07451563981</v>
       </c>
       <c r="AC5" t="n">
-        <v>1037.450845972148</v>
+        <v>1135.291965375292</v>
       </c>
       <c r="AD5" t="n">
-        <v>838235.1855095469</v>
+        <v>917288.4430125606</v>
       </c>
       <c r="AE5" t="n">
-        <v>1146910.361140607</v>
+        <v>1255074.51563981</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.41148999726858e-06</v>
+        <v>2.766065611909187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.20920138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1037450.845972148</v>
+        <v>1135291.965375292</v>
       </c>
     </row>
     <row r="6">
@@ -15629,28 +15629,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>845.4006248519921</v>
+        <v>924.4538823550058</v>
       </c>
       <c r="AB6" t="n">
-        <v>1156.714431365814</v>
+        <v>1264.878585865016</v>
       </c>
       <c r="AC6" t="n">
-        <v>1046.31922949516</v>
+        <v>1144.160348898304</v>
       </c>
       <c r="AD6" t="n">
-        <v>845400.6248519921</v>
+        <v>924453.8823550058</v>
       </c>
       <c r="AE6" t="n">
-        <v>1156714.431365814</v>
+        <v>1264878.585865017</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.41148999726858e-06</v>
+        <v>2.766065611909187e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.20920138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1046319.229495161</v>
+        <v>1144160.348898304</v>
       </c>
     </row>
   </sheetData>
@@ -15926,28 +15926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4467.283460771256</v>
+        <v>4640.099878900938</v>
       </c>
       <c r="AB2" t="n">
-        <v>6112.334313664476</v>
+        <v>6348.789361071805</v>
       </c>
       <c r="AC2" t="n">
-        <v>5528.981705483198</v>
+        <v>5742.869815032705</v>
       </c>
       <c r="AD2" t="n">
-        <v>4467283.460771256</v>
+        <v>4640099.878900938</v>
       </c>
       <c r="AE2" t="n">
-        <v>6112334.313664476</v>
+        <v>6348789.361071805</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.277201633901482e-07</v>
+        <v>1.079980744549325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.09244791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5528981.705483198</v>
+        <v>5742869.815032705</v>
       </c>
     </row>
     <row r="3">
@@ -16032,28 +16032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2370.974997459014</v>
+        <v>2492.827542284043</v>
       </c>
       <c r="AB3" t="n">
-        <v>3244.072591558196</v>
+        <v>3410.796619142686</v>
       </c>
       <c r="AC3" t="n">
-        <v>2934.462856504237</v>
+        <v>3085.274976894701</v>
       </c>
       <c r="AD3" t="n">
-        <v>2370974.997459014</v>
+        <v>2492827.542284043</v>
       </c>
       <c r="AE3" t="n">
-        <v>3244072.591558196</v>
+        <v>3410796.619142686</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.235852175284446e-07</v>
+        <v>1.589011010087899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.49131944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2934462.856504237</v>
+        <v>3085274.9768947</v>
       </c>
     </row>
     <row r="4">
@@ -16138,28 +16138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1983.300176382908</v>
+        <v>2084.971989937048</v>
       </c>
       <c r="AB4" t="n">
-        <v>2713.638798355646</v>
+        <v>2852.750659104267</v>
       </c>
       <c r="AC4" t="n">
-        <v>2454.652920056556</v>
+        <v>2580.488140060053</v>
       </c>
       <c r="AD4" t="n">
-        <v>1983300.176382908</v>
+        <v>2084971.989937048</v>
       </c>
       <c r="AE4" t="n">
-        <v>2713638.798355646</v>
+        <v>2852750.659104268</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.03385262042955e-06</v>
+        <v>1.77872400455585e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.09114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2454652.920056556</v>
+        <v>2580488.140060053</v>
       </c>
     </row>
     <row r="5">
@@ -16244,28 +16244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1812.343625108437</v>
+        <v>1903.925073027132</v>
       </c>
       <c r="AB5" t="n">
-        <v>2479.728502831165</v>
+        <v>2605.034280161857</v>
       </c>
       <c r="AC5" t="n">
-        <v>2243.06669484177</v>
+        <v>2356.413464651785</v>
       </c>
       <c r="AD5" t="n">
-        <v>1812343.625108436</v>
+        <v>1903925.073027132</v>
       </c>
       <c r="AE5" t="n">
-        <v>2479728.502831165</v>
+        <v>2605034.280161857</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.092815051147503e-06</v>
+        <v>1.880167758542185e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.00824652777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>2243066.69484177</v>
+        <v>2356413.464651784</v>
       </c>
     </row>
     <row r="6">
@@ -16350,28 +16350,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1707.363507047824</v>
+        <v>1798.859614111948</v>
       </c>
       <c r="AB6" t="n">
-        <v>2336.090073904693</v>
+        <v>2461.279084113188</v>
       </c>
       <c r="AC6" t="n">
-        <v>2113.136915974239</v>
+        <v>2226.378062752315</v>
       </c>
       <c r="AD6" t="n">
-        <v>1707363.507047824</v>
+        <v>1798859.614111948</v>
       </c>
       <c r="AE6" t="n">
-        <v>2336090.073904693</v>
+        <v>2461279.084113188</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.130145161504648e-06</v>
+        <v>1.94439351187769e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.38107638888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2113136.915974239</v>
+        <v>2226378.062752315</v>
       </c>
     </row>
     <row r="7">
@@ -16456,28 +16456,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1637.465798521609</v>
+        <v>1739.052181712626</v>
       </c>
       <c r="AB7" t="n">
-        <v>2240.45294542986</v>
+        <v>2379.447916586736</v>
       </c>
       <c r="AC7" t="n">
-        <v>2026.627260813492</v>
+        <v>2152.356747003822</v>
       </c>
       <c r="AD7" t="n">
-        <v>1637465.798521609</v>
+        <v>1739052.181712626</v>
       </c>
       <c r="AE7" t="n">
-        <v>2240452.94542986</v>
+        <v>2379447.916586736</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.154266155889265e-06</v>
+        <v>1.985893229417554e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.99696180555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>2026627.260813492</v>
+        <v>2152356.747003823</v>
       </c>
     </row>
     <row r="8">
@@ -16562,28 +16562,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1593.366156633885</v>
+        <v>1684.94751504403</v>
       </c>
       <c r="AB8" t="n">
-        <v>2180.113869860186</v>
+        <v>2305.41952472133</v>
       </c>
       <c r="AC8" t="n">
-        <v>1972.046861929763</v>
+        <v>2085.393520958551</v>
       </c>
       <c r="AD8" t="n">
-        <v>1593366.156633885</v>
+        <v>1684947.51504403</v>
       </c>
       <c r="AE8" t="n">
-        <v>2180113.869860186</v>
+        <v>2305419.52472133</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.171495437592562e-06</v>
+        <v>2.015535884803171e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.73003472222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1972046.861929763</v>
+        <v>2085393.520958551</v>
       </c>
     </row>
     <row r="9">
@@ -16668,28 +16668,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1558.6944371788</v>
+        <v>1650.275795588945</v>
       </c>
       <c r="AB9" t="n">
-        <v>2132.674493693431</v>
+        <v>2257.980148554574</v>
       </c>
       <c r="AC9" t="n">
-        <v>1929.13503324278</v>
+        <v>2042.481692271568</v>
       </c>
       <c r="AD9" t="n">
-        <v>1558694.4371788</v>
+        <v>1650275.795588945</v>
       </c>
       <c r="AE9" t="n">
-        <v>2132674.49369343</v>
+        <v>2257980.148554575</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.184704553565091e-06</v>
+        <v>2.038261920598811e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.53255208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1929135.03324278</v>
+        <v>2042481.692271568</v>
       </c>
     </row>
     <row r="10">
@@ -16774,28 +16774,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1528.888820197699</v>
+        <v>1620.299586407252</v>
       </c>
       <c r="AB10" t="n">
-        <v>2091.89313360887</v>
+        <v>2216.965376695167</v>
       </c>
       <c r="AC10" t="n">
-        <v>1892.245788927692</v>
+        <v>2005.381312673828</v>
       </c>
       <c r="AD10" t="n">
-        <v>1528888.820197699</v>
+        <v>1620299.586407252</v>
       </c>
       <c r="AE10" t="n">
-        <v>2091893.13360887</v>
+        <v>2216965.376695167</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.195616431977179e-06</v>
+        <v>2.057035602343035e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.37413194444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1892245.788927692</v>
+        <v>2005381.312673829</v>
       </c>
     </row>
     <row r="11">
@@ -16880,28 +16880,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1503.35233476674</v>
+        <v>1594.763100976293</v>
       </c>
       <c r="AB11" t="n">
-        <v>2056.952987652006</v>
+        <v>2182.025230738303</v>
       </c>
       <c r="AC11" t="n">
-        <v>1860.640281462147</v>
+        <v>1973.775805208284</v>
       </c>
       <c r="AD11" t="n">
-        <v>1503352.33476674</v>
+        <v>1594763.100976293</v>
       </c>
       <c r="AE11" t="n">
-        <v>2056952.987652006</v>
+        <v>2182025.230738303</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.203656763438718e-06</v>
+        <v>2.07086884152299e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.25694444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1860640.281462147</v>
+        <v>1973775.805208284</v>
       </c>
     </row>
     <row r="12">
@@ -16986,28 +16986,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1478.887574828949</v>
+        <v>1560.293316257629</v>
       </c>
       <c r="AB12" t="n">
-        <v>2023.479223796085</v>
+        <v>2134.862150586651</v>
       </c>
       <c r="AC12" t="n">
-        <v>1830.361206647914</v>
+        <v>1931.113903232507</v>
       </c>
       <c r="AD12" t="n">
-        <v>1478887.574828949</v>
+        <v>1560293.316257629</v>
       </c>
       <c r="AE12" t="n">
-        <v>2023479.223796085</v>
+        <v>2134862.150586651</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.211218503741832e-06</v>
+        <v>2.0838786736089e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.15060763888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1830361.206647914</v>
+        <v>1931113.903232507</v>
       </c>
     </row>
     <row r="13">
@@ -17092,28 +17092,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1459.84809157947</v>
+        <v>1541.25383300815</v>
       </c>
       <c r="AB13" t="n">
-        <v>1997.428562851429</v>
+        <v>2108.811489641994</v>
       </c>
       <c r="AC13" t="n">
-        <v>1806.796784221483</v>
+        <v>1907.549480806076</v>
       </c>
       <c r="AD13" t="n">
-        <v>1459848.09157947</v>
+        <v>1541253.83300815</v>
       </c>
       <c r="AE13" t="n">
-        <v>1997428.562851429</v>
+        <v>2108811.489641994</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.216770161179561e-06</v>
+        <v>2.093430195899821e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.0703125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1806796.784221483</v>
+        <v>1907549.480806076</v>
       </c>
     </row>
     <row r="14">
@@ -17198,28 +17198,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1428.225832137858</v>
+        <v>1519.721849693431</v>
       </c>
       <c r="AB14" t="n">
-        <v>1954.161592407787</v>
+        <v>2079.350480146734</v>
       </c>
       <c r="AC14" t="n">
-        <v>1767.659152711408</v>
+        <v>1880.900188708257</v>
       </c>
       <c r="AD14" t="n">
-        <v>1428225.832137858</v>
+        <v>1519721.849693431</v>
       </c>
       <c r="AE14" t="n">
-        <v>1954161.592407787</v>
+        <v>2079350.480146734</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.222704691544031e-06</v>
+        <v>2.103640443865978e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.99001736111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1767659.152711408</v>
+        <v>1880900.188708257</v>
       </c>
     </row>
     <row r="15">
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1408.366160177683</v>
+        <v>1499.862177733256</v>
       </c>
       <c r="AB15" t="n">
-        <v>1926.988713084985</v>
+        <v>2052.177600823932</v>
       </c>
       <c r="AC15" t="n">
-        <v>1743.079614853799</v>
+        <v>1856.320650850648</v>
       </c>
       <c r="AD15" t="n">
-        <v>1408366.160177683</v>
+        <v>1499862.177733256</v>
       </c>
       <c r="AE15" t="n">
-        <v>1926988.713084985</v>
+        <v>2052177.600823932</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.22729916666491e-06</v>
+        <v>2.111545151968809e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.92491319444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1743079.614853799</v>
+        <v>1856320.650850648</v>
       </c>
     </row>
     <row r="16">
@@ -17410,28 +17410,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1390.706203338792</v>
+        <v>1482.202220894364</v>
       </c>
       <c r="AB16" t="n">
-        <v>1902.825581035704</v>
+        <v>2028.01446877465</v>
       </c>
       <c r="AC16" t="n">
-        <v>1721.222578214132</v>
+        <v>1834.463614210981</v>
       </c>
       <c r="AD16" t="n">
-        <v>1390706.203338792</v>
+        <v>1482202.220894364</v>
       </c>
       <c r="AE16" t="n">
-        <v>1902825.581035704</v>
+        <v>2028014.46877465</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.2305535865422e-06</v>
+        <v>2.117144320208315e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.87934027777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1721222.578214132</v>
+        <v>1834463.614210981</v>
       </c>
     </row>
     <row r="17">
@@ -17516,28 +17516,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1374.683784067536</v>
+        <v>1466.17980162311</v>
       </c>
       <c r="AB17" t="n">
-        <v>1880.903000129522</v>
+        <v>2006.091887868469</v>
       </c>
       <c r="AC17" t="n">
-        <v>1701.392257661101</v>
+        <v>1814.63329365795</v>
       </c>
       <c r="AD17" t="n">
-        <v>1374683.784067536</v>
+        <v>1466179.80162311</v>
       </c>
       <c r="AE17" t="n">
-        <v>1880903.000129522</v>
+        <v>2006091.887868469</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.233808006419489e-06</v>
+        <v>2.12274348844782e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.8359375</v>
       </c>
       <c r="AH17" t="n">
-        <v>1701392.257661101</v>
+        <v>1814633.29365795</v>
       </c>
     </row>
     <row r="18">
@@ -17622,28 +17622,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1356.148361526261</v>
+        <v>1447.644379081834</v>
       </c>
       <c r="AB18" t="n">
-        <v>1855.542017283418</v>
+        <v>1980.730905022365</v>
       </c>
       <c r="AC18" t="n">
-        <v>1678.451691423466</v>
+        <v>1791.692727420315</v>
       </c>
       <c r="AD18" t="n">
-        <v>1356148.361526261</v>
+        <v>1447644.379081834</v>
       </c>
       <c r="AE18" t="n">
-        <v>1855542.017283418</v>
+        <v>1980730.905022365</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.237541017455204e-06</v>
+        <v>2.129166063781371e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.78385416666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1678451.691423466</v>
+        <v>1791692.727420315</v>
       </c>
     </row>
     <row r="19">
@@ -17728,28 +17728,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1342.413810658765</v>
+        <v>1433.909828214338</v>
       </c>
       <c r="AB19" t="n">
-        <v>1836.74979886089</v>
+        <v>1961.938686599837</v>
       </c>
       <c r="AC19" t="n">
-        <v>1661.45297595214</v>
+        <v>1774.694011948989</v>
       </c>
       <c r="AD19" t="n">
-        <v>1342413.810658765</v>
+        <v>1433909.828214338</v>
       </c>
       <c r="AE19" t="n">
-        <v>1836749.798860891</v>
+        <v>1961938.686599837</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.239072509162163e-06</v>
+        <v>2.131800966482315e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.76432291666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1661452.97595214</v>
+        <v>1774694.011948989</v>
       </c>
     </row>
     <row r="20">
@@ -17834,28 +17834,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1327.894757413962</v>
+        <v>1419.390774969536</v>
       </c>
       <c r="AB20" t="n">
-        <v>1816.88418967593</v>
+        <v>1942.073077414876</v>
       </c>
       <c r="AC20" t="n">
-        <v>1643.483312626234</v>
+        <v>1756.724348623083</v>
       </c>
       <c r="AD20" t="n">
-        <v>1327894.757413962</v>
+        <v>1419390.774969536</v>
       </c>
       <c r="AE20" t="n">
-        <v>1816884.189675929</v>
+        <v>1942073.077414877</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.241944056112713e-06</v>
+        <v>2.136741409046584e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.72526041666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1643483.312626234</v>
+        <v>1756724.348623083</v>
       </c>
     </row>
     <row r="21">
@@ -17940,28 +17940,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1325.495398691418</v>
+        <v>1416.991416246991</v>
       </c>
       <c r="AB21" t="n">
-        <v>1813.601281219508</v>
+        <v>1938.790168958455</v>
       </c>
       <c r="AC21" t="n">
-        <v>1640.513720345303</v>
+        <v>1753.754756342152</v>
       </c>
       <c r="AD21" t="n">
-        <v>1325495.398691418</v>
+        <v>1416991.416246991</v>
       </c>
       <c r="AE21" t="n">
-        <v>1813601.281219508</v>
+        <v>1938790.168958455</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.242614083734508e-06</v>
+        <v>2.137894178978247e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.71657986111111</v>
       </c>
       <c r="AH21" t="n">
-        <v>1640513.720345302</v>
+        <v>1753754.756342152</v>
       </c>
     </row>
     <row r="22">
@@ -18046,28 +18046,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1328.052473661257</v>
+        <v>1419.54849121683</v>
       </c>
       <c r="AB22" t="n">
-        <v>1817.099984003427</v>
+        <v>1942.288871742374</v>
       </c>
       <c r="AC22" t="n">
-        <v>1643.678511845985</v>
+        <v>1756.919547842834</v>
       </c>
       <c r="AD22" t="n">
-        <v>1328052.473661257</v>
+        <v>1419548.49121683</v>
       </c>
       <c r="AE22" t="n">
-        <v>1817099.984003427</v>
+        <v>1942288.871742374</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.242614083734508e-06</v>
+        <v>2.137894178978247e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.71657986111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>1643678.511845985</v>
+        <v>1756919.547842834</v>
       </c>
     </row>
     <row r="23">
@@ -18152,28 +18152,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1334.295372569638</v>
+        <v>1425.791390125212</v>
       </c>
       <c r="AB23" t="n">
-        <v>1825.641793707137</v>
+        <v>1950.830681446084</v>
       </c>
       <c r="AC23" t="n">
-        <v>1651.405103220078</v>
+        <v>1764.646139216926</v>
       </c>
       <c r="AD23" t="n">
-        <v>1334295.372569638</v>
+        <v>1425791.390125212</v>
       </c>
       <c r="AE23" t="n">
-        <v>1825641.793707137</v>
+        <v>1950830.681446084</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.242422647271138e-06</v>
+        <v>2.137564816140629e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH23" t="n">
-        <v>1651405.103220077</v>
+        <v>1764646.139216926</v>
       </c>
     </row>
   </sheetData>
@@ -18449,28 +18449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1015.824028782155</v>
+        <v>1101.998783611367</v>
       </c>
       <c r="AB2" t="n">
-        <v>1389.895251173011</v>
+        <v>1507.803352492208</v>
       </c>
       <c r="AC2" t="n">
-        <v>1257.245599131295</v>
+        <v>1363.900716745647</v>
       </c>
       <c r="AD2" t="n">
-        <v>1015824.028782155</v>
+        <v>1101998.783611367</v>
       </c>
       <c r="AE2" t="n">
-        <v>1389895.251173011</v>
+        <v>1507803.352492208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.259836323781887e-06</v>
+        <v>2.525543959294681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.73307291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1257245.599131295</v>
+        <v>1363900.716745647</v>
       </c>
     </row>
     <row r="3">
@@ -18555,28 +18555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>796.1030430485732</v>
+        <v>873.6603223948649</v>
       </c>
       <c r="AB3" t="n">
-        <v>1089.263305086561</v>
+        <v>1195.380596273838</v>
       </c>
       <c r="AC3" t="n">
-        <v>985.3055440397488</v>
+        <v>1081.295149892666</v>
       </c>
       <c r="AD3" t="n">
-        <v>796103.0430485732</v>
+        <v>873660.3223948649</v>
       </c>
       <c r="AE3" t="n">
-        <v>1089263.305086561</v>
+        <v>1195380.596273838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.411502380581961e-06</v>
+        <v>2.829582893837885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.61284722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>985305.5440397488</v>
+        <v>1081295.149892666</v>
       </c>
     </row>
     <row r="4">
@@ -18661,28 +18661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>778.1562595838103</v>
+        <v>855.5429467295096</v>
       </c>
       <c r="AB4" t="n">
-        <v>1064.707724193865</v>
+        <v>1170.591603606295</v>
       </c>
       <c r="AC4" t="n">
-        <v>963.093513323478</v>
+        <v>1058.871983893744</v>
       </c>
       <c r="AD4" t="n">
-        <v>778156.2595838103</v>
+        <v>855542.9467295096</v>
       </c>
       <c r="AE4" t="n">
-        <v>1064707.724193865</v>
+        <v>1170591.603606295</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42708137131067e-06</v>
+        <v>2.860813479259241e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.41970486111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>963093.5133234779</v>
+        <v>1058871.983893744</v>
       </c>
     </row>
   </sheetData>
@@ -18958,28 +18958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3085.086438904663</v>
+        <v>3222.400711979051</v>
       </c>
       <c r="AB2" t="n">
-        <v>4221.151370117518</v>
+        <v>4409.030816416092</v>
       </c>
       <c r="AC2" t="n">
-        <v>3818.290607776499</v>
+        <v>3988.239103410789</v>
       </c>
       <c r="AD2" t="n">
-        <v>3085086.438904663</v>
+        <v>3222400.711979051</v>
       </c>
       <c r="AE2" t="n">
-        <v>4221151.370117518</v>
+        <v>4409030.816416092</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.667504421653052e-07</v>
+        <v>1.357972007923088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.16623263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3818290.607776499</v>
+        <v>3988239.103410789</v>
       </c>
     </row>
     <row r="3">
@@ -19064,28 +19064,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1872.285017083991</v>
+        <v>1980.156445416884</v>
       </c>
       <c r="AB3" t="n">
-        <v>2561.742959759697</v>
+        <v>2709.337406956309</v>
       </c>
       <c r="AC3" t="n">
-        <v>2317.253807109057</v>
+        <v>2450.762047415331</v>
       </c>
       <c r="AD3" t="n">
-        <v>1872285.017083991</v>
+        <v>1980156.445416884</v>
       </c>
       <c r="AE3" t="n">
-        <v>2561742.959759697</v>
+        <v>2709337.406956309</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034043328298466e-06</v>
+        <v>1.831367570970643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2317253.807109057</v>
+        <v>2450762.047415331</v>
       </c>
     </row>
     <row r="4">
@@ -19170,28 +19170,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1617.061945860273</v>
+        <v>1705.390301067658</v>
       </c>
       <c r="AB4" t="n">
-        <v>2212.535494064171</v>
+        <v>2333.390246430927</v>
       </c>
       <c r="AC4" t="n">
-        <v>2001.374211823755</v>
+        <v>2110.694756245338</v>
       </c>
       <c r="AD4" t="n">
-        <v>1617061.945860273</v>
+        <v>1705390.301067658</v>
       </c>
       <c r="AE4" t="n">
-        <v>2212535.494064171</v>
+        <v>2333390.246430927</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.13126788144519e-06</v>
+        <v>2.003559479048626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2001374.211823755</v>
+        <v>2110694.756245338</v>
       </c>
     </row>
     <row r="5">
@@ -19276,28 +19276,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1496.029364760749</v>
+        <v>1584.272379113563</v>
       </c>
       <c r="AB5" t="n">
-        <v>2046.933377023173</v>
+        <v>2167.671362267731</v>
       </c>
       <c r="AC5" t="n">
-        <v>1851.576928409119</v>
+        <v>1960.791849798763</v>
       </c>
       <c r="AD5" t="n">
-        <v>1496029.364760749</v>
+        <v>1584272.379113563</v>
       </c>
       <c r="AE5" t="n">
-        <v>2046933.377023173</v>
+        <v>2167671.362267731</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.181024561663575e-06</v>
+        <v>2.09168225698004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.28559027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1851576.928409119</v>
+        <v>1960791.849798763</v>
       </c>
     </row>
     <row r="6">
@@ -19382,28 +19382,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1418.813083858677</v>
+        <v>1516.784919592683</v>
       </c>
       <c r="AB6" t="n">
-        <v>1941.282654951066</v>
+        <v>2075.332042814679</v>
       </c>
       <c r="AC6" t="n">
-        <v>1756.009362969854</v>
+        <v>1877.265265395261</v>
       </c>
       <c r="AD6" t="n">
-        <v>1418813.083858677</v>
+        <v>1516784.919592683</v>
       </c>
       <c r="AE6" t="n">
-        <v>1941282.654951066</v>
+        <v>2075332.042814679</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.211475649957226e-06</v>
+        <v>2.145613397074065e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.82552083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1756009.362969854</v>
+        <v>1877265.265395261</v>
       </c>
     </row>
     <row r="7">
@@ -19488,28 +19488,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1371.765489260958</v>
+        <v>1460.093754959792</v>
       </c>
       <c r="AB7" t="n">
-        <v>1876.910060429081</v>
+        <v>1997.764690326289</v>
       </c>
       <c r="AC7" t="n">
-        <v>1697.780398521543</v>
+        <v>1807.1008321619</v>
       </c>
       <c r="AD7" t="n">
-        <v>1371765.489260958</v>
+        <v>1460093.754959792</v>
       </c>
       <c r="AE7" t="n">
-        <v>1876910.060429081</v>
+        <v>1997764.690326289</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.231875888846764e-06</v>
+        <v>2.181743736025945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.53038194444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1697780.398521543</v>
+        <v>1807100.8321619</v>
       </c>
     </row>
     <row r="8">
@@ -19594,28 +19594,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1332.45401995668</v>
+        <v>1420.611693454922</v>
       </c>
       <c r="AB8" t="n">
-        <v>1823.122373827343</v>
+        <v>1943.743591949704</v>
       </c>
       <c r="AC8" t="n">
-        <v>1649.126133237583</v>
+        <v>1758.235431595289</v>
       </c>
       <c r="AD8" t="n">
-        <v>1332454.01995668</v>
+        <v>1420611.693454922</v>
       </c>
       <c r="AE8" t="n">
-        <v>1823122.373827343</v>
+        <v>1943743.591949704</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.247101432993589e-06</v>
+        <v>2.208709306072958e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.31553819444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1649126.133237583</v>
+        <v>1758235.431595289</v>
       </c>
     </row>
     <row r="9">
@@ -19700,28 +19700,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1297.635701710449</v>
+        <v>1376.14980517352</v>
       </c>
       <c r="AB9" t="n">
-        <v>1775.48241472706</v>
+        <v>1882.908874883015</v>
       </c>
       <c r="AC9" t="n">
-        <v>1606.032864970728</v>
+        <v>1703.206694543383</v>
       </c>
       <c r="AD9" t="n">
-        <v>1297635.701710449</v>
+        <v>1376149.80517352</v>
       </c>
       <c r="AE9" t="n">
-        <v>1775482.41472706</v>
+        <v>1882908.874883015</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.259242062966875e-06</v>
+        <v>2.230211263888223e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.15060763888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1606032.864970728</v>
+        <v>1703206.694543383</v>
       </c>
     </row>
     <row r="10">
@@ -19806,28 +19806,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1272.384928890729</v>
+        <v>1350.899032353799</v>
       </c>
       <c r="AB10" t="n">
-        <v>1740.933193369643</v>
+        <v>1848.359653525598</v>
       </c>
       <c r="AC10" t="n">
-        <v>1574.780972809527</v>
+        <v>1671.954802382182</v>
       </c>
       <c r="AD10" t="n">
-        <v>1272384.928890729</v>
+        <v>1350899.032353799</v>
       </c>
       <c r="AE10" t="n">
-        <v>1740933.193369643</v>
+        <v>1848359.653525598</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.267501671883127e-06</v>
+        <v>2.244839645024837e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.03776041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1574780.972809527</v>
+        <v>1671954.802382182</v>
       </c>
     </row>
     <row r="11">
@@ -19912,28 +19912,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1233.151620673999</v>
+        <v>1321.394545518262</v>
       </c>
       <c r="AB11" t="n">
-        <v>1687.252450216112</v>
+        <v>1807.990312991122</v>
       </c>
       <c r="AC11" t="n">
-        <v>1526.223444441173</v>
+        <v>1635.43825504959</v>
       </c>
       <c r="AD11" t="n">
-        <v>1233151.620673999</v>
+        <v>1321394.545518262</v>
       </c>
       <c r="AE11" t="n">
-        <v>1687252.450216112</v>
+        <v>1807990.312991122</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.275562254078505e-06</v>
+        <v>2.259115535049726e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.92925347222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1526223.444441173</v>
+        <v>1635438.25504959</v>
       </c>
     </row>
     <row r="12">
@@ -20018,28 +20018,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1208.207817252493</v>
+        <v>1296.450742096756</v>
       </c>
       <c r="AB12" t="n">
-        <v>1653.123237931866</v>
+        <v>1773.861100706876</v>
       </c>
       <c r="AC12" t="n">
-        <v>1495.351476276685</v>
+        <v>1604.566286885103</v>
       </c>
       <c r="AD12" t="n">
-        <v>1208207.817252493</v>
+        <v>1296450.742096756</v>
       </c>
       <c r="AE12" t="n">
-        <v>1653123.237931866</v>
+        <v>1773861.100706876</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.281433542344274e-06</v>
+        <v>2.269514022845634e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.85329861111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1495351.476276685</v>
+        <v>1604566.286885103</v>
       </c>
     </row>
     <row r="13">
@@ -20124,28 +20124,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1182.284312730507</v>
+        <v>1270.52723757477</v>
       </c>
       <c r="AB13" t="n">
-        <v>1617.653555380581</v>
+        <v>1738.391418155592</v>
       </c>
       <c r="AC13" t="n">
-        <v>1463.266970446082</v>
+        <v>1572.481781054501</v>
       </c>
       <c r="AD13" t="n">
-        <v>1182284.312730507</v>
+        <v>1270527.23757477</v>
       </c>
       <c r="AE13" t="n">
-        <v>1617653.555380581</v>
+        <v>1738391.418155591</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.28680726380786e-06</v>
+        <v>2.279031282862226e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.78168402777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>1463266.970446082</v>
+        <v>1572481.7810545</v>
       </c>
     </row>
     <row r="14">
@@ -20230,28 +20230,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1174.558131400809</v>
+        <v>1262.801056245072</v>
       </c>
       <c r="AB14" t="n">
-        <v>1607.082253230225</v>
+        <v>1727.820116005235</v>
       </c>
       <c r="AC14" t="n">
-        <v>1453.70457853604</v>
+        <v>1562.919389144459</v>
       </c>
       <c r="AD14" t="n">
-        <v>1174558.131400809</v>
+        <v>1262801.056245072</v>
       </c>
       <c r="AE14" t="n">
-        <v>1607082.253230225</v>
+        <v>1727820.116005235</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.288498990935285e-06</v>
+        <v>2.282027457311894e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.75998263888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1453704.57853604</v>
+        <v>1562919.389144459</v>
       </c>
     </row>
     <row r="15">
@@ -20336,28 +20336,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1174.903952814421</v>
+        <v>1263.146877658683</v>
       </c>
       <c r="AB15" t="n">
-        <v>1607.555421344892</v>
+        <v>1728.293284119902</v>
       </c>
       <c r="AC15" t="n">
-        <v>1454.132588149939</v>
+        <v>1563.347398758357</v>
       </c>
       <c r="AD15" t="n">
-        <v>1174903.952814421</v>
+        <v>1263146.877658684</v>
       </c>
       <c r="AE15" t="n">
-        <v>1607555.421344892</v>
+        <v>1728293.284119902</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.289394611179216e-06</v>
+        <v>2.283613667314659e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.74913194444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1454132.588149939</v>
+        <v>1563347.398758357</v>
       </c>
     </row>
   </sheetData>
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3717.050997549962</v>
+        <v>3876.830131596009</v>
       </c>
       <c r="AB2" t="n">
-        <v>5085.8331595647</v>
+        <v>5304.450019724418</v>
       </c>
       <c r="AC2" t="n">
-        <v>4600.448380827324</v>
+        <v>4798.20075468408</v>
       </c>
       <c r="AD2" t="n">
-        <v>3717050.997549962</v>
+        <v>3876830.131596009</v>
       </c>
       <c r="AE2" t="n">
-        <v>5085833.1595647</v>
+        <v>5304450.019724417</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.937357465065145e-07</v>
+        <v>1.209814565453942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.49913194444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>4600448.380827324</v>
+        <v>4798200.754684079</v>
       </c>
     </row>
     <row r="3">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2111.868704792369</v>
+        <v>2221.892813424454</v>
       </c>
       <c r="AB3" t="n">
-        <v>2889.551930968632</v>
+        <v>3040.091770320324</v>
       </c>
       <c r="AC3" t="n">
-        <v>2613.777150188591</v>
+        <v>2749.949678556436</v>
       </c>
       <c r="AD3" t="n">
-        <v>2111868.704792369</v>
+        <v>2221892.813424454</v>
       </c>
       <c r="AE3" t="n">
-        <v>2889551.930968632</v>
+        <v>3040091.770320325</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.774702542133249e-07</v>
+        <v>1.704622771423157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.64713541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2613777.150188591</v>
+        <v>2749949.678556436</v>
       </c>
     </row>
     <row r="4">
@@ -20845,28 +20845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1791.974392274142</v>
+        <v>1891.996309212398</v>
       </c>
       <c r="AB4" t="n">
-        <v>2451.858419840151</v>
+        <v>2588.71281925062</v>
       </c>
       <c r="AC4" t="n">
-        <v>2217.856493455512</v>
+        <v>2341.649701062601</v>
       </c>
       <c r="AD4" t="n">
-        <v>1791974.392274142</v>
+        <v>1891996.309212398</v>
       </c>
       <c r="AE4" t="n">
-        <v>2451858.419840151</v>
+        <v>2588712.81925062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.081213730570729e-06</v>
+        <v>1.885542335392657e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.5703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2217856.493455512</v>
+        <v>2341649.701062601</v>
       </c>
     </row>
     <row r="5">
@@ -20951,28 +20951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1648.201553296183</v>
+        <v>1748.138129379868</v>
       </c>
       <c r="AB5" t="n">
-        <v>2255.142078740506</v>
+        <v>2391.879711028776</v>
       </c>
       <c r="AC5" t="n">
-        <v>2039.914483857298</v>
+        <v>2163.602068432448</v>
       </c>
       <c r="AD5" t="n">
-        <v>1648201.553296183</v>
+        <v>1748138.129379868</v>
       </c>
       <c r="AE5" t="n">
-        <v>2255142.078740506</v>
+        <v>2391879.711028777</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.135620553698015e-06</v>
+        <v>1.980423084166136e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.6328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2039914.483857298</v>
+        <v>2163602.068432448</v>
       </c>
     </row>
     <row r="6">
@@ -21057,28 +21057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1569.973955626543</v>
+        <v>1659.908429524953</v>
       </c>
       <c r="AB6" t="n">
-        <v>2148.107628450866</v>
+        <v>2271.159943267638</v>
       </c>
       <c r="AC6" t="n">
-        <v>1943.095251279507</v>
+        <v>2054.403625875174</v>
       </c>
       <c r="AD6" t="n">
-        <v>1569973.955626543</v>
+        <v>1659908.429524953</v>
       </c>
       <c r="AE6" t="n">
-        <v>2148107.628450866</v>
+        <v>2271159.943267638</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.168869167831356e-06</v>
+        <v>2.03840576397215e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.10329861111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1943095.251279507</v>
+        <v>2054403.625875175</v>
       </c>
     </row>
     <row r="7">
@@ -21163,28 +21163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1505.337686955808</v>
+        <v>1595.357412200238</v>
       </c>
       <c r="AB7" t="n">
-        <v>2059.669434104645</v>
+        <v>2182.838393574067</v>
       </c>
       <c r="AC7" t="n">
-        <v>1863.097474077904</v>
+        <v>1974.511360924284</v>
       </c>
       <c r="AD7" t="n">
-        <v>1505337.686955808</v>
+        <v>1595357.412200238</v>
       </c>
       <c r="AE7" t="n">
-        <v>2059669.434104645</v>
+        <v>2182838.393574066</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.191684932368604e-06</v>
+        <v>2.078194465070706e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.75607638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1863097.474077904</v>
+        <v>1974511.360924284</v>
       </c>
     </row>
     <row r="8">
@@ -21269,28 +21269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1463.67826395852</v>
+        <v>1553.69798920295</v>
       </c>
       <c r="AB8" t="n">
-        <v>2002.669173675724</v>
+        <v>2125.838133145145</v>
       </c>
       <c r="AC8" t="n">
-        <v>1811.537238503951</v>
+        <v>1922.951125350331</v>
       </c>
       <c r="AD8" t="n">
-        <v>1463678.26395852</v>
+        <v>1553697.98920295</v>
       </c>
       <c r="AE8" t="n">
-        <v>2002669.173675724</v>
+        <v>2125838.133145145</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.208748004137914e-06</v>
+        <v>2.107950972302532e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.50651041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1811537.238503951</v>
+        <v>1922951.125350331</v>
       </c>
     </row>
     <row r="9">
@@ -21375,28 +21375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1431.819744899902</v>
+        <v>1521.668877943741</v>
       </c>
       <c r="AB9" t="n">
-        <v>1959.078942401058</v>
+        <v>2082.014490095632</v>
       </c>
       <c r="AC9" t="n">
-        <v>1772.107197722865</v>
+        <v>1883.309949286594</v>
       </c>
       <c r="AD9" t="n">
-        <v>1431819.744899902</v>
+        <v>1521668.877943741</v>
       </c>
       <c r="AE9" t="n">
-        <v>1959078.942401058</v>
+        <v>2082014.490095632</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.220545899475551e-06</v>
+        <v>2.128525471588537e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.33506944444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1772107.197722865</v>
+        <v>1883309.949286594</v>
       </c>
     </row>
     <row r="10">
@@ -21481,28 +21481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1404.50671757288</v>
+        <v>1494.355850616718</v>
       </c>
       <c r="AB10" t="n">
-        <v>1921.708053446502</v>
+        <v>2044.643601141076</v>
       </c>
       <c r="AC10" t="n">
-        <v>1738.30293395976</v>
+        <v>1849.505685523489</v>
       </c>
       <c r="AD10" t="n">
-        <v>1404506.71757288</v>
+        <v>1494355.850616718</v>
       </c>
       <c r="AE10" t="n">
-        <v>1921708.053446502</v>
+        <v>2044643.601141077</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.230003716399112e-06</v>
+        <v>2.145019078454178e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.20269097222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1738302.93395976</v>
+        <v>1849505.685523489</v>
       </c>
     </row>
     <row r="11">
@@ -21587,28 +21587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1377.156363538006</v>
+        <v>1457.173986597162</v>
       </c>
       <c r="AB11" t="n">
-        <v>1884.286092443526</v>
+        <v>1993.769734441449</v>
       </c>
       <c r="AC11" t="n">
-        <v>1704.452472392856</v>
+        <v>1803.487149259753</v>
       </c>
       <c r="AD11" t="n">
-        <v>1377156.363538006</v>
+        <v>1457173.986597162</v>
       </c>
       <c r="AE11" t="n">
-        <v>1884286.092443526</v>
+        <v>1993769.734441449</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.238096487581127e-06</v>
+        <v>2.159132164741272e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.08984375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1704452.472392856</v>
+        <v>1803487.149259753</v>
       </c>
     </row>
     <row r="12">
@@ -21693,28 +21693,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1342.140175066693</v>
+        <v>1432.074559456552</v>
       </c>
       <c r="AB12" t="n">
-        <v>1836.375398571868</v>
+        <v>1959.427590919092</v>
       </c>
       <c r="AC12" t="n">
-        <v>1661.114307901228</v>
+        <v>1772.422571715669</v>
       </c>
       <c r="AD12" t="n">
-        <v>1342140.175066693</v>
+        <v>1432074.559456552</v>
       </c>
       <c r="AE12" t="n">
-        <v>1836375.398571868</v>
+        <v>1959427.590919092</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.245604239159624e-06</v>
+        <v>2.172225027923275e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.98784722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1661114.307901228</v>
+        <v>1772422.571715669</v>
       </c>
     </row>
     <row r="13">
@@ -21799,28 +21799,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1318.976981502704</v>
+        <v>1408.911365892563</v>
       </c>
       <c r="AB13" t="n">
-        <v>1804.682495249639</v>
+        <v>1927.734687596863</v>
       </c>
       <c r="AC13" t="n">
-        <v>1632.446130790803</v>
+        <v>1743.754394605244</v>
       </c>
       <c r="AD13" t="n">
-        <v>1318976.981502704</v>
+        <v>1408911.365892563</v>
       </c>
       <c r="AE13" t="n">
-        <v>1804682.495249639</v>
+        <v>1927734.687596863</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.25038189925503e-06</v>
+        <v>2.180556849948186e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.92274305555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1632446.130790803</v>
+        <v>1743754.394605245</v>
       </c>
     </row>
     <row r="14">
@@ -21905,28 +21905,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1299.807591704355</v>
+        <v>1389.741976094215</v>
       </c>
       <c r="AB14" t="n">
-        <v>1778.454090433747</v>
+        <v>1901.50628278097</v>
       </c>
       <c r="AC14" t="n">
-        <v>1608.720928118742</v>
+        <v>1720.029191933183</v>
       </c>
       <c r="AD14" t="n">
-        <v>1299807.591704355</v>
+        <v>1389741.976094215</v>
       </c>
       <c r="AE14" t="n">
-        <v>1778454.090433747</v>
+        <v>1901506.28278097</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.255159559350437e-06</v>
+        <v>2.188888671973097e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.85763888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1608720.928118742</v>
+        <v>1720029.191933183</v>
       </c>
     </row>
     <row r="15">
@@ -22011,28 +22011,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1278.354560450326</v>
+        <v>1368.288944840185</v>
       </c>
       <c r="AB15" t="n">
-        <v>1749.101106631041</v>
+        <v>1872.153298978265</v>
       </c>
       <c r="AC15" t="n">
-        <v>1582.169351892995</v>
+        <v>1693.477615707436</v>
       </c>
       <c r="AD15" t="n">
-        <v>1278354.560450326</v>
+        <v>1368288.944840185</v>
       </c>
       <c r="AE15" t="n">
-        <v>1749101.106631041</v>
+        <v>1872153.298978264</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.259547206376831e-06</v>
+        <v>2.196540345261281e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.79904513888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>1582169.351892995</v>
+        <v>1693477.615707436</v>
       </c>
     </row>
     <row r="16">
@@ -22117,28 +22117,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1259.524834284501</v>
+        <v>1349.45921867436</v>
       </c>
       <c r="AB16" t="n">
-        <v>1723.337444582069</v>
+        <v>1846.389636929293</v>
       </c>
       <c r="AC16" t="n">
-        <v>1558.86453759045</v>
+        <v>1670.172801404892</v>
       </c>
       <c r="AD16" t="n">
-        <v>1259524.834284501</v>
+        <v>1349459.21867436</v>
       </c>
       <c r="AE16" t="n">
-        <v>1723337.444582069</v>
+        <v>1846389.636929293</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.262959820730693e-06</v>
+        <v>2.202491646707646e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.75347222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>1558864.53759045</v>
+        <v>1670172.801404892</v>
       </c>
     </row>
     <row r="17">
@@ -22223,28 +22223,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1246.54581235236</v>
+        <v>1336.480196742219</v>
       </c>
       <c r="AB17" t="n">
-        <v>1705.578974180479</v>
+        <v>1828.631166527702</v>
       </c>
       <c r="AC17" t="n">
-        <v>1542.800910679818</v>
+        <v>1654.109174494259</v>
       </c>
       <c r="AD17" t="n">
-        <v>1246545.81235236</v>
+        <v>1336480.196742219</v>
       </c>
       <c r="AE17" t="n">
-        <v>1705578.974180479</v>
+        <v>1828631.166527702</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.264422369739491e-06</v>
+        <v>2.205042204470374e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.73394097222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>1542800.910679818</v>
+        <v>1654109.174494259</v>
       </c>
     </row>
     <row r="18">
@@ -22329,28 +22329,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1250.482169077988</v>
+        <v>1340.416553467848</v>
       </c>
       <c r="AB18" t="n">
-        <v>1710.964871112285</v>
+        <v>1834.017063459509</v>
       </c>
       <c r="AC18" t="n">
-        <v>1547.672785167607</v>
+        <v>1658.981048982048</v>
       </c>
       <c r="AD18" t="n">
-        <v>1250482.169077988</v>
+        <v>1340416.553467847</v>
       </c>
       <c r="AE18" t="n">
-        <v>1710964.871112285</v>
+        <v>1834017.063459509</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.264129859937732e-06</v>
+        <v>2.204532092917829e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.73828125</v>
       </c>
       <c r="AH18" t="n">
-        <v>1547672.785167607</v>
+        <v>1658981.048982048</v>
       </c>
     </row>
     <row r="19">
@@ -22435,28 +22435,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1254.931931347229</v>
+        <v>1344.866315737088</v>
       </c>
       <c r="AB19" t="n">
-        <v>1717.053232158717</v>
+        <v>1840.10542450594</v>
       </c>
       <c r="AC19" t="n">
-        <v>1553.180081580835</v>
+        <v>1664.488345395276</v>
       </c>
       <c r="AD19" t="n">
-        <v>1254931.931347229</v>
+        <v>1344866.315737088</v>
       </c>
       <c r="AE19" t="n">
-        <v>1717053.232158717</v>
+        <v>1840105.42450594</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.264227363204985e-06</v>
+        <v>2.20470213010201e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.73828125</v>
       </c>
       <c r="AH19" t="n">
-        <v>1553180.081580835</v>
+        <v>1664488.345395276</v>
       </c>
     </row>
     <row r="20">
@@ -22541,28 +22541,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1260.77634831861</v>
+        <v>1350.710732708469</v>
       </c>
       <c r="AB20" t="n">
-        <v>1725.04982129644</v>
+        <v>1848.102013643663</v>
       </c>
       <c r="AC20" t="n">
-        <v>1560.413487474537</v>
+        <v>1671.721751288979</v>
       </c>
       <c r="AD20" t="n">
-        <v>1260776.34831861</v>
+        <v>1350710.732708469</v>
       </c>
       <c r="AE20" t="n">
-        <v>1725049.82129644</v>
+        <v>1848102.013643663</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.264129859937732e-06</v>
+        <v>2.204532092917829e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.73828125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1560413.487474537</v>
+        <v>1671721.751288979</v>
       </c>
     </row>
   </sheetData>
@@ -22838,28 +22838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5367.25445722552</v>
+        <v>5553.242861708787</v>
       </c>
       <c r="AB2" t="n">
-        <v>7343.714334931473</v>
+        <v>7598.191875174804</v>
       </c>
       <c r="AC2" t="n">
-        <v>6642.840545773139</v>
+        <v>6873.031106737107</v>
       </c>
       <c r="AD2" t="n">
-        <v>5367254.45722552</v>
+        <v>5553242.861708787</v>
       </c>
       <c r="AE2" t="n">
-        <v>7343714.334931473</v>
+        <v>7598191.875174805</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.667449030617091e-07</v>
+        <v>9.634287734050476e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.03515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>6642840.545773138</v>
+        <v>6873031.106737107</v>
       </c>
     </row>
     <row r="3">
@@ -22944,28 +22944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2643.338082155577</v>
+        <v>2767.216593841177</v>
       </c>
       <c r="AB3" t="n">
-        <v>3616.731779851319</v>
+        <v>3786.227824673792</v>
       </c>
       <c r="AC3" t="n">
-        <v>3271.555974897106</v>
+        <v>3424.87555509091</v>
       </c>
       <c r="AD3" t="n">
-        <v>2643338.082155577</v>
+        <v>2767216.593841177</v>
       </c>
       <c r="AE3" t="n">
-        <v>3616731.779851319</v>
+        <v>3786227.824673792</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.74210130279013e-07</v>
+        <v>1.486099281992608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.36154513888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3271555.974897106</v>
+        <v>3424875.555090909</v>
       </c>
     </row>
     <row r="4">
@@ -23050,28 +23050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2164.392240328892</v>
+        <v>2278.018578036666</v>
       </c>
       <c r="AB4" t="n">
-        <v>2961.416949464551</v>
+        <v>3116.885517556738</v>
       </c>
       <c r="AC4" t="n">
-        <v>2678.783472182447</v>
+        <v>2819.414338337303</v>
       </c>
       <c r="AD4" t="n">
-        <v>2164392.240328892</v>
+        <v>2278018.578036665</v>
       </c>
       <c r="AE4" t="n">
-        <v>2961416.949464551</v>
+        <v>3116885.517556738</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.915682993454281e-07</v>
+        <v>1.68560039133105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.59678819444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2678783.472182447</v>
+        <v>2819414.338337304</v>
       </c>
     </row>
     <row r="5">
@@ -23156,28 +23156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1967.37122384335</v>
+        <v>2070.574884881252</v>
       </c>
       <c r="AB5" t="n">
-        <v>2691.844102755234</v>
+        <v>2833.051904811479</v>
       </c>
       <c r="AC5" t="n">
-        <v>2434.9382796152</v>
+        <v>2562.669407229593</v>
       </c>
       <c r="AD5" t="n">
-        <v>1967371.223843351</v>
+        <v>2070574.884881252</v>
       </c>
       <c r="AE5" t="n">
-        <v>2691844.102755234</v>
+        <v>2833051.904811479</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.053400149446979e-06</v>
+        <v>1.79071043851257e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.38802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2434938.2796152</v>
+        <v>2562669.407229593</v>
       </c>
     </row>
     <row r="6">
@@ -23262,28 +23262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1851.922412059615</v>
+        <v>1955.211324443537</v>
       </c>
       <c r="AB6" t="n">
-        <v>2533.881945230614</v>
+        <v>2675.206391939509</v>
       </c>
       <c r="AC6" t="n">
-        <v>2292.05180870345</v>
+        <v>2419.888448568554</v>
       </c>
       <c r="AD6" t="n">
-        <v>1851922.412059615</v>
+        <v>1955211.324443537</v>
       </c>
       <c r="AE6" t="n">
-        <v>2533881.945230614</v>
+        <v>2675206.391939509</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.091986235507308e-06</v>
+        <v>1.856304227469075e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.70225694444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>2292051.80870345</v>
+        <v>2419888.448568555</v>
       </c>
     </row>
     <row r="7">
@@ -23368,28 +23368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1782.49273317765</v>
+        <v>1875.444309746274</v>
       </c>
       <c r="AB7" t="n">
-        <v>2438.885195563055</v>
+        <v>2566.065643358389</v>
       </c>
       <c r="AC7" t="n">
-        <v>2206.121415495387</v>
+        <v>2321.163939852013</v>
       </c>
       <c r="AD7" t="n">
-        <v>1782492.73317765</v>
+        <v>1875444.309746274</v>
       </c>
       <c r="AE7" t="n">
-        <v>2438885.195563055</v>
+        <v>2566065.643358388</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.118243596509337e-06</v>
+        <v>1.90094000092972e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>2206121.415495387</v>
+        <v>2321163.939852013</v>
       </c>
     </row>
     <row r="8">
@@ -23474,28 +23474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1718.081935670071</v>
+        <v>1821.285507199421</v>
       </c>
       <c r="AB8" t="n">
-        <v>2350.755500809349</v>
+        <v>2491.963180396046</v>
       </c>
       <c r="AC8" t="n">
-        <v>2126.402695118171</v>
+        <v>2254.133711951337</v>
       </c>
       <c r="AD8" t="n">
-        <v>1718081.935670071</v>
+        <v>1821285.507199421</v>
       </c>
       <c r="AE8" t="n">
-        <v>2350755.500809349</v>
+        <v>2491963.180396046</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.13894832561488e-06</v>
+        <v>1.936136668174674e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.93185763888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2126402.695118171</v>
+        <v>2254133.711951337</v>
       </c>
     </row>
     <row r="9">
@@ -23580,28 +23580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1679.869680010522</v>
+        <v>1772.906507925166</v>
       </c>
       <c r="AB9" t="n">
-        <v>2298.471806810213</v>
+        <v>2425.768899258196</v>
       </c>
       <c r="AC9" t="n">
-        <v>2079.108883493688</v>
+        <v>2194.256920101026</v>
       </c>
       <c r="AD9" t="n">
-        <v>1679869.680010522</v>
+        <v>1772906.507925166</v>
       </c>
       <c r="AE9" t="n">
-        <v>2298471.806810213</v>
+        <v>2425768.899258196</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.153253411178709e-06</v>
+        <v>1.960454365543915e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2079108.883493687</v>
+        <v>2194256.920101026</v>
       </c>
     </row>
     <row r="10">
@@ -23686,28 +23686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1649.618303415285</v>
+        <v>1742.65513132993</v>
       </c>
       <c r="AB10" t="n">
-        <v>2257.080538756066</v>
+        <v>2384.377631204049</v>
       </c>
       <c r="AC10" t="n">
-        <v>2041.667939969619</v>
+        <v>2156.815976576958</v>
       </c>
       <c r="AD10" t="n">
-        <v>1649618.303415285</v>
+        <v>1742655.13132993</v>
       </c>
       <c r="AE10" t="n">
-        <v>2257080.538756066</v>
+        <v>2384377.631204049</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.163982225351581e-06</v>
+        <v>1.978692638570845e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.54774305555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>2041667.939969619</v>
+        <v>2156815.976576958</v>
       </c>
     </row>
     <row r="11">
@@ -23792,28 +23792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1624.016773276587</v>
+        <v>1716.883008990639</v>
       </c>
       <c r="AB11" t="n">
-        <v>2222.051395760503</v>
+        <v>2349.115076433639</v>
       </c>
       <c r="AC11" t="n">
-        <v>2009.981929217841</v>
+        <v>2124.918830542529</v>
       </c>
       <c r="AD11" t="n">
-        <v>1624016.773276587</v>
+        <v>1716883.008990639</v>
       </c>
       <c r="AE11" t="n">
-        <v>2222051.395760503</v>
+        <v>2349115.076433639</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.1733934658541e-06</v>
+        <v>1.994691123682187e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.40668402777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>2009981.929217841</v>
+        <v>2124918.830542529</v>
       </c>
     </row>
     <row r="12">
@@ -23898,28 +23898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1599.686852759364</v>
+        <v>1692.553088473416</v>
       </c>
       <c r="AB12" t="n">
-        <v>2188.762125148498</v>
+        <v>2315.825805821635</v>
       </c>
       <c r="AC12" t="n">
-        <v>1979.869739871261</v>
+        <v>2094.806641195949</v>
       </c>
       <c r="AD12" t="n">
-        <v>1599686.852759364</v>
+        <v>1692553.088473416</v>
       </c>
       <c r="AE12" t="n">
-        <v>2188762.125148498</v>
+        <v>2315825.805821635</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.181204795471191e-06</v>
+        <v>2.007969866324602e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.28949652777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1979869.739871261</v>
+        <v>2094806.641195949</v>
       </c>
     </row>
     <row r="13">
@@ -24004,28 +24004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1579.811967323054</v>
+        <v>1672.678203037106</v>
       </c>
       <c r="AB13" t="n">
-        <v>2161.568430076477</v>
+        <v>2288.632110749612</v>
       </c>
       <c r="AC13" t="n">
-        <v>1955.271372890323</v>
+        <v>2070.208274215011</v>
       </c>
       <c r="AD13" t="n">
-        <v>1579811.967323054</v>
+        <v>1672678.203037106</v>
       </c>
       <c r="AE13" t="n">
-        <v>2161568.430076477</v>
+        <v>2288632.110749613</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.187039764582753e-06</v>
+        <v>2.017888927093634e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.20486111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1955271.372890323</v>
+        <v>2070208.27421501</v>
       </c>
     </row>
     <row r="14">
@@ -24110,28 +24110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1561.097237457231</v>
+        <v>1643.796729556577</v>
       </c>
       <c r="AB14" t="n">
-        <v>2135.962111038447</v>
+        <v>2249.115204572869</v>
       </c>
       <c r="AC14" t="n">
-        <v>1932.108885002588</v>
+        <v>2034.462806101449</v>
       </c>
       <c r="AD14" t="n">
-        <v>1561097.237457231</v>
+        <v>1643796.729556577</v>
       </c>
       <c r="AE14" t="n">
-        <v>2135962.111038447</v>
+        <v>2249115.204572869</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.192310059264163e-06</v>
+        <v>2.026848078755986e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.12890625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1932108.885002588</v>
+        <v>2034462.806101449</v>
       </c>
     </row>
     <row r="15">
@@ -24216,28 +24216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1544.383312759634</v>
+        <v>1627.08280485898</v>
       </c>
       <c r="AB15" t="n">
-        <v>2113.093381900877</v>
+        <v>2226.2464754353</v>
       </c>
       <c r="AC15" t="n">
-        <v>1911.422715277445</v>
+        <v>2013.776636376306</v>
       </c>
       <c r="AD15" t="n">
-        <v>1544383.312759634</v>
+        <v>1627082.80485898</v>
       </c>
       <c r="AE15" t="n">
-        <v>2113093.381900877</v>
+        <v>2226246.475435299</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.196921567110398e-06</v>
+        <v>2.034687336460544e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.06380208333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1911422.715277445</v>
+        <v>2013776.636376306</v>
       </c>
     </row>
     <row r="16">
@@ -24322,28 +24322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1516.268633716172</v>
+        <v>1609.220120776244</v>
       </c>
       <c r="AB16" t="n">
-        <v>2074.625637701511</v>
+        <v>2201.805963027296</v>
       </c>
       <c r="AC16" t="n">
-        <v>1876.626278594649</v>
+        <v>1991.668692170049</v>
       </c>
       <c r="AD16" t="n">
-        <v>1516268.633716172</v>
+        <v>1609220.120776244</v>
       </c>
       <c r="AE16" t="n">
-        <v>2074625.637701511</v>
+        <v>2201805.963027297</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.201627187361658e-06</v>
+        <v>2.042686579016215e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.99652777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1876626.278594648</v>
+        <v>1991668.692170049</v>
       </c>
     </row>
     <row r="17">
@@ -24428,28 +24428,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1501.327563111413</v>
+        <v>1594.279050171486</v>
       </c>
       <c r="AB17" t="n">
-        <v>2054.182605746566</v>
+        <v>2181.362931072351</v>
       </c>
       <c r="AC17" t="n">
-        <v>1858.134300917508</v>
+        <v>1973.176714492908</v>
       </c>
       <c r="AD17" t="n">
-        <v>1501327.563111413</v>
+        <v>1594279.050171486</v>
       </c>
       <c r="AE17" t="n">
-        <v>2054182.605746566</v>
+        <v>2181362.931072352</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.204921121537539e-06</v>
+        <v>2.048286048805185e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.95095486111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>1858134.300917508</v>
+        <v>1973176.714492908</v>
       </c>
     </row>
     <row r="18">
@@ -24534,28 +24534,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1483.949504452984</v>
+        <v>1576.900991513056</v>
       </c>
       <c r="AB18" t="n">
-        <v>2030.405179224264</v>
+        <v>2157.585504550049</v>
       </c>
       <c r="AC18" t="n">
-        <v>1836.626158610666</v>
+        <v>1951.668572186066</v>
       </c>
       <c r="AD18" t="n">
-        <v>1483949.504452984</v>
+        <v>1576900.991513056</v>
       </c>
       <c r="AE18" t="n">
-        <v>2030405.179224264</v>
+        <v>2157585.504550049</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.208685617738547e-06</v>
+        <v>2.054685442849722e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.89887152777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>1836626.158610666</v>
+        <v>1951668.572186066</v>
       </c>
     </row>
     <row r="19">
@@ -24640,28 +24640,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1468.847646954483</v>
+        <v>1561.799134014555</v>
       </c>
       <c r="AB19" t="n">
-        <v>2009.742151547883</v>
+        <v>2136.922476873669</v>
       </c>
       <c r="AC19" t="n">
-        <v>1817.935181294978</v>
+        <v>1932.977594870378</v>
       </c>
       <c r="AD19" t="n">
-        <v>1468847.646954483</v>
+        <v>1561799.134014555</v>
       </c>
       <c r="AE19" t="n">
-        <v>2009742.151547883</v>
+        <v>2136922.476873668</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.210661978244076e-06</v>
+        <v>2.058045124723104e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.87065972222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>1817935.181294978</v>
+        <v>1932977.594870378</v>
       </c>
     </row>
     <row r="20">
@@ -24746,28 +24746,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1451.884369405497</v>
+        <v>1544.83585646557</v>
       </c>
       <c r="AB20" t="n">
-        <v>1986.532246838373</v>
+        <v>2113.712572164158</v>
       </c>
       <c r="AC20" t="n">
-        <v>1796.940397315637</v>
+        <v>1911.982810891038</v>
       </c>
       <c r="AD20" t="n">
-        <v>1451884.369405497</v>
+        <v>1544835.85646557</v>
       </c>
       <c r="AE20" t="n">
-        <v>1986532.246838373</v>
+        <v>2113712.572164158</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.214426474445084e-06</v>
+        <v>2.064444518767641e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.81857638888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>1796940.397315637</v>
+        <v>1911982.810891038</v>
       </c>
     </row>
     <row r="21">
@@ -24852,28 +24852,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1439.047111563425</v>
+        <v>1531.998598623497</v>
       </c>
       <c r="AB21" t="n">
-        <v>1968.967744319003</v>
+        <v>2096.148069644789</v>
       </c>
       <c r="AC21" t="n">
-        <v>1781.052226264783</v>
+        <v>1896.094639840183</v>
       </c>
       <c r="AD21" t="n">
-        <v>1439047.111563425</v>
+        <v>1531998.598623497</v>
       </c>
       <c r="AE21" t="n">
-        <v>1968967.744319004</v>
+        <v>2096148.069644789</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.216685172165688e-06</v>
+        <v>2.068284155194363e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.78602430555556</v>
       </c>
       <c r="AH21" t="n">
-        <v>1781052.226264783</v>
+        <v>1896094.639840183</v>
       </c>
     </row>
     <row r="22">
@@ -24958,28 +24958,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1428.399317609238</v>
+        <v>1521.35080466931</v>
       </c>
       <c r="AB22" t="n">
-        <v>1954.398962883369</v>
+        <v>2081.579288209154</v>
       </c>
       <c r="AC22" t="n">
-        <v>1767.873868881951</v>
+        <v>1882.916282457352</v>
       </c>
       <c r="AD22" t="n">
-        <v>1428399.317609238</v>
+        <v>1521350.80466931</v>
       </c>
       <c r="AE22" t="n">
-        <v>1954398.962883369</v>
+        <v>2081579.288209154</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.217814521025991e-06</v>
+        <v>2.070203973407724e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1767873.868881952</v>
+        <v>1882916.282457352</v>
       </c>
     </row>
     <row r="23">
@@ -25064,28 +25064,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1417.35069496961</v>
+        <v>1510.302182029683</v>
       </c>
       <c r="AB23" t="n">
-        <v>1939.281749957</v>
+        <v>2066.462075282786</v>
       </c>
       <c r="AC23" t="n">
-        <v>1754.199421540134</v>
+        <v>1869.241835115534</v>
       </c>
       <c r="AD23" t="n">
-        <v>1417350.69496961</v>
+        <v>1510302.182029683</v>
       </c>
       <c r="AE23" t="n">
-        <v>1939281.749957</v>
+        <v>2066462.075282786</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.220261443556646e-06</v>
+        <v>2.074363579536673e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.73611111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>1754199.421540134</v>
+        <v>1869241.835115534</v>
       </c>
     </row>
     <row r="24">
@@ -25170,28 +25170,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1407.811799754724</v>
+        <v>1500.763286814796</v>
       </c>
       <c r="AB24" t="n">
-        <v>1926.230212697636</v>
+        <v>2053.410538023422</v>
       </c>
       <c r="AC24" t="n">
-        <v>1742.393504678856</v>
+        <v>1857.435918254256</v>
       </c>
       <c r="AD24" t="n">
-        <v>1407811.799754723</v>
+        <v>1500763.286814796</v>
       </c>
       <c r="AE24" t="n">
-        <v>1926230.212697637</v>
+        <v>2053410.538023422</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.221390792416948e-06</v>
+        <v>2.076283397750035e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.72092013888889</v>
       </c>
       <c r="AH24" t="n">
-        <v>1742393.504678856</v>
+        <v>1857435.918254256</v>
       </c>
     </row>
     <row r="25">
@@ -25276,28 +25276,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1402.478606127698</v>
+        <v>1495.43009318777</v>
       </c>
       <c r="AB25" t="n">
-        <v>1918.933101893242</v>
+        <v>2046.113427219028</v>
       </c>
       <c r="AC25" t="n">
-        <v>1735.792819888074</v>
+        <v>1850.835233463474</v>
       </c>
       <c r="AD25" t="n">
-        <v>1402478.606127698</v>
+        <v>1495430.09318777</v>
       </c>
       <c r="AE25" t="n">
-        <v>1918933.101893242</v>
+        <v>2046113.427219028</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.222237804062175e-06</v>
+        <v>2.077723261410055e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.71006944444444</v>
       </c>
       <c r="AH25" t="n">
-        <v>1735792.819888074</v>
+        <v>1850835.233463474</v>
       </c>
     </row>
     <row r="26">
@@ -25382,28 +25382,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1405.003121729636</v>
+        <v>1497.954608789709</v>
       </c>
       <c r="AB26" t="n">
-        <v>1922.387255513582</v>
+        <v>2049.567580839368</v>
       </c>
       <c r="AC26" t="n">
-        <v>1738.917313934824</v>
+        <v>1853.959727510224</v>
       </c>
       <c r="AD26" t="n">
-        <v>1405003.121729636</v>
+        <v>1497954.608789708</v>
       </c>
       <c r="AE26" t="n">
-        <v>1922387.255513582</v>
+        <v>2049567.580839367</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.2223319164672e-06</v>
+        <v>2.077883246261169e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.70789930555556</v>
       </c>
       <c r="AH26" t="n">
-        <v>1738917.313934824</v>
+        <v>1853959.727510224</v>
       </c>
     </row>
   </sheetData>
@@ -25679,28 +25679,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2539.048260839902</v>
+        <v>2663.868912188884</v>
       </c>
       <c r="AB2" t="n">
-        <v>3474.037845385006</v>
+        <v>3644.822967259186</v>
       </c>
       <c r="AC2" t="n">
-        <v>3142.48054926407</v>
+        <v>3296.966178804996</v>
       </c>
       <c r="AD2" t="n">
-        <v>2539048.260839902</v>
+        <v>2663868.912188884</v>
       </c>
       <c r="AE2" t="n">
-        <v>3474037.845385006</v>
+        <v>3644822.967259186</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.480190184872099e-07</v>
+        <v>1.529178965504185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.05685763888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3142480.54926407</v>
+        <v>3296966.178804996</v>
       </c>
     </row>
     <row r="3">
@@ -25785,28 +25785,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1648.030482028121</v>
+        <v>1744.02669429364</v>
       </c>
       <c r="AB3" t="n">
-        <v>2254.908011484411</v>
+        <v>2386.254264160085</v>
       </c>
       <c r="AC3" t="n">
-        <v>2039.70275565161</v>
+        <v>2158.51350631754</v>
       </c>
       <c r="AD3" t="n">
-        <v>1648030.482028121</v>
+        <v>1744026.69429364</v>
       </c>
       <c r="AE3" t="n">
-        <v>2254908.011484412</v>
+        <v>2386254.264160085</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.097160876842139e-06</v>
+        <v>1.97844069303315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.13888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2039702.75565161</v>
+        <v>2158513.50631754</v>
       </c>
     </row>
     <row r="4">
@@ -25891,28 +25891,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1435.179329624982</v>
+        <v>1531.175452381951</v>
       </c>
       <c r="AB4" t="n">
-        <v>1963.67567443633</v>
+        <v>2095.021804642455</v>
       </c>
       <c r="AC4" t="n">
-        <v>1776.265224104245</v>
+        <v>1895.075863988949</v>
       </c>
       <c r="AD4" t="n">
-        <v>1435179.329624982</v>
+        <v>1531175.452381951</v>
       </c>
       <c r="AE4" t="n">
-        <v>1963675.67443633</v>
+        <v>2095021.804642455</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.185332862675963e-06</v>
+        <v>2.13743564850519e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.64149305555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1776265.224104245</v>
+        <v>1895075.863988949</v>
       </c>
     </row>
     <row r="5">
@@ -25997,28 +25997,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1331.879446772021</v>
+        <v>1427.790228674418</v>
       </c>
       <c r="AB5" t="n">
-        <v>1822.336217447714</v>
+        <v>1953.565580531641</v>
       </c>
       <c r="AC5" t="n">
-        <v>1648.415006519448</v>
+        <v>1767.120023372213</v>
       </c>
       <c r="AD5" t="n">
-        <v>1331879.446772021</v>
+        <v>1427790.228674418</v>
       </c>
       <c r="AE5" t="n">
-        <v>1822336.217447713</v>
+        <v>1953565.580531641</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.231251529663325e-06</v>
+        <v>2.220237871274117e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.94487847222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1648415.006519448</v>
+        <v>1767120.023372213</v>
       </c>
     </row>
     <row r="6">
@@ -26103,28 +26103,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1270.652434876688</v>
+        <v>1357.125752127074</v>
       </c>
       <c r="AB6" t="n">
-        <v>1738.562718627391</v>
+        <v>1856.879326222881</v>
       </c>
       <c r="AC6" t="n">
-        <v>1572.636732849693</v>
+        <v>1679.661369474672</v>
       </c>
       <c r="AD6" t="n">
-        <v>1270652.434876688</v>
+        <v>1357125.752127074</v>
       </c>
       <c r="AE6" t="n">
-        <v>1738562.718627391</v>
+        <v>1856879.326222881</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.259861608207556e-06</v>
+        <v>2.271828613176707e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1572636.732849693</v>
+        <v>1679661.369474672</v>
       </c>
     </row>
     <row r="7">
@@ -26209,28 +26209,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1227.727592162631</v>
+        <v>1314.030317212425</v>
       </c>
       <c r="AB7" t="n">
-        <v>1679.831055115609</v>
+        <v>1797.914250936252</v>
       </c>
       <c r="AC7" t="n">
-        <v>1519.510336873067</v>
+        <v>1626.323838215395</v>
       </c>
       <c r="AD7" t="n">
-        <v>1227727.592162631</v>
+        <v>1314030.317212424</v>
       </c>
       <c r="AE7" t="n">
-        <v>1679831.055115609</v>
+        <v>1797914.250936252</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.27757745755523e-06</v>
+        <v>2.303774481828133e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.29383680555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1519510.336873068</v>
+        <v>1626323.838215395</v>
       </c>
     </row>
     <row r="8">
@@ -26315,28 +26315,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1189.797028887736</v>
+        <v>1266.662289285519</v>
       </c>
       <c r="AB8" t="n">
-        <v>1627.932785064547</v>
+        <v>1733.103225396754</v>
       </c>
       <c r="AC8" t="n">
-        <v>1472.565164876</v>
+        <v>1567.698285990541</v>
       </c>
       <c r="AD8" t="n">
-        <v>1189797.028887736</v>
+        <v>1266662.289285519</v>
       </c>
       <c r="AE8" t="n">
-        <v>1627932.785064548</v>
+        <v>1733103.225396754</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.291627958762006e-06</v>
+        <v>2.329110860413747e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.10720486111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1472565.164876</v>
+        <v>1567698.285990541</v>
       </c>
     </row>
     <row r="9">
@@ -26421,28 +26421,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1148.682673336631</v>
+        <v>1235.070649732445</v>
       </c>
       <c r="AB9" t="n">
-        <v>1571.678309962172</v>
+        <v>1689.878150435465</v>
       </c>
       <c r="AC9" t="n">
-        <v>1421.679537923744</v>
+        <v>1528.598551516784</v>
       </c>
       <c r="AD9" t="n">
-        <v>1148682.673336631</v>
+        <v>1235070.649732445</v>
       </c>
       <c r="AE9" t="n">
-        <v>1571678.309962172</v>
+        <v>1689878.150435465</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.301605850923339e-06</v>
+        <v>2.347103361148458e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.97482638888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1421679.537923744</v>
+        <v>1528598.551516784</v>
       </c>
     </row>
     <row r="10">
@@ -26527,28 +26527,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1117.109051112647</v>
+        <v>1203.497027508461</v>
       </c>
       <c r="AB10" t="n">
-        <v>1528.477887105413</v>
+        <v>1646.677727578706</v>
       </c>
       <c r="AC10" t="n">
-        <v>1382.60210279226</v>
+        <v>1489.5211163853</v>
       </c>
       <c r="AD10" t="n">
-        <v>1117109.051112647</v>
+        <v>1203497.027508461</v>
       </c>
       <c r="AE10" t="n">
-        <v>1528477.887105413</v>
+        <v>1646677.727578706</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.30985288424036e-06</v>
+        <v>2.361974713796536e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.86848958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1382602.10279226</v>
+        <v>1489521.1163853</v>
       </c>
     </row>
     <row r="11">
@@ -26633,28 +26633,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1095.375180174701</v>
+        <v>1181.763156570515</v>
       </c>
       <c r="AB11" t="n">
-        <v>1498.740646057401</v>
+        <v>1616.940486530694</v>
       </c>
       <c r="AC11" t="n">
-        <v>1355.702942293389</v>
+        <v>1462.62195588643</v>
       </c>
       <c r="AD11" t="n">
-        <v>1095375.180174701</v>
+        <v>1181763.156570515</v>
       </c>
       <c r="AE11" t="n">
-        <v>1498740.646057401</v>
+        <v>1616940.486530693</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.314434569416482e-06</v>
+        <v>2.370236576378801e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.80989583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1355702.942293389</v>
+        <v>1462621.95588643</v>
       </c>
     </row>
     <row r="12">
@@ -26739,28 +26739,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1096.219922237951</v>
+        <v>1182.607898633765</v>
       </c>
       <c r="AB12" t="n">
-        <v>1499.896459415729</v>
+        <v>1618.096299889022</v>
       </c>
       <c r="AC12" t="n">
-        <v>1356.748446446993</v>
+        <v>1463.667460040033</v>
       </c>
       <c r="AD12" t="n">
-        <v>1096219.922237951</v>
+        <v>1182607.898633765</v>
       </c>
       <c r="AE12" t="n">
-        <v>1499896.459415729</v>
+        <v>1618096.299889022</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.316063613034659e-06</v>
+        <v>2.373174127519162e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.78819444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>1356748.446446993</v>
+        <v>1463667.460040033</v>
       </c>
     </row>
     <row r="13">
@@ -26845,28 +26845,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1101.308526997665</v>
+        <v>1187.696503393479</v>
       </c>
       <c r="AB13" t="n">
-        <v>1506.858912941367</v>
+        <v>1625.05875341466</v>
       </c>
       <c r="AC13" t="n">
-        <v>1363.046413180009</v>
+        <v>1469.965426773049</v>
       </c>
       <c r="AD13" t="n">
-        <v>1101308.526997665</v>
+        <v>1187696.503393479</v>
       </c>
       <c r="AE13" t="n">
-        <v>1506858.912941367</v>
+        <v>1625058.75341466</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.315758167356251e-06</v>
+        <v>2.372623336680345e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.79253472222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>1363046.413180009</v>
+        <v>1469965.426773049</v>
       </c>
     </row>
   </sheetData>
@@ -27142,28 +27142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1838.06093509257</v>
+        <v>1948.910988885693</v>
       </c>
       <c r="AB2" t="n">
-        <v>2514.916060919099</v>
+        <v>2666.585994878079</v>
       </c>
       <c r="AC2" t="n">
-        <v>2274.89600177184</v>
+        <v>2412.090770103865</v>
       </c>
       <c r="AD2" t="n">
-        <v>1838060.93509257</v>
+        <v>1948910.988885693</v>
       </c>
       <c r="AE2" t="n">
-        <v>2514916.060919099</v>
+        <v>2666585.994878079</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.914275214936194e-07</v>
+        <v>1.849686852499704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.21397569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2274896.00177184</v>
+        <v>2412090.770103864</v>
       </c>
     </row>
     <row r="3">
@@ -27248,28 +27248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1308.951624453251</v>
+        <v>1392.217198457088</v>
       </c>
       <c r="AB3" t="n">
-        <v>1790.965359447039</v>
+        <v>1904.892991216958</v>
       </c>
       <c r="AC3" t="n">
-        <v>1620.038139177082</v>
+        <v>1723.092677669315</v>
       </c>
       <c r="AD3" t="n">
-        <v>1308951.624453251</v>
+        <v>1392217.198457088</v>
       </c>
       <c r="AE3" t="n">
-        <v>1790965.359447039</v>
+        <v>1904892.991216958</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.206088337015986e-06</v>
+        <v>2.25017531949365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.08203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1620038.139177082</v>
+        <v>1723092.677669315</v>
       </c>
     </row>
     <row r="4">
@@ -27354,28 +27354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1155.1163289642</v>
+        <v>1247.462852249819</v>
       </c>
       <c r="AB4" t="n">
-        <v>1580.481121424667</v>
+        <v>1706.833708625127</v>
       </c>
       <c r="AC4" t="n">
-        <v>1429.642221415082</v>
+        <v>1543.9358950301</v>
       </c>
       <c r="AD4" t="n">
-        <v>1155116.3289642</v>
+        <v>1247462.852249819</v>
       </c>
       <c r="AE4" t="n">
-        <v>1580481.121424667</v>
+        <v>1706833.708625127</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.281919603368996e-06</v>
+        <v>2.391652223594772e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.95355902777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1429642.221415082</v>
+        <v>1543935.8950301</v>
       </c>
     </row>
     <row r="5">
@@ -27460,28 +27460,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1083.07876399414</v>
+        <v>1166.173656288835</v>
       </c>
       <c r="AB5" t="n">
-        <v>1481.916146959562</v>
+        <v>1595.610244485085</v>
       </c>
       <c r="AC5" t="n">
-        <v>1340.484149776116</v>
+        <v>1443.327442204471</v>
       </c>
       <c r="AD5" t="n">
-        <v>1083078.763994141</v>
+        <v>1166173.656288835</v>
       </c>
       <c r="AE5" t="n">
-        <v>1481916.146959562</v>
+        <v>1595610.244485085</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.320100380833449e-06</v>
+        <v>2.462885350135196e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.43489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1340484.149776116</v>
+        <v>1443327.442204471</v>
       </c>
     </row>
     <row r="6">
@@ -27566,28 +27566,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1026.307136527477</v>
+        <v>1100.320990031838</v>
       </c>
       <c r="AB6" t="n">
-        <v>1404.238701672235</v>
+        <v>1505.507721297667</v>
       </c>
       <c r="AC6" t="n">
-        <v>1270.220130846032</v>
+        <v>1361.824177370375</v>
       </c>
       <c r="AD6" t="n">
-        <v>1026307.136527478</v>
+        <v>1100320.990031838</v>
       </c>
       <c r="AE6" t="n">
-        <v>1404238.701672235</v>
+        <v>1505507.721297667</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34417548217909e-06</v>
+        <v>2.507801793814853e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.12239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1270220.130846032</v>
+        <v>1361824.177370375</v>
       </c>
     </row>
     <row r="7">
@@ -27672,28 +27672,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>978.1173014201653</v>
+        <v>1061.29744506088</v>
       </c>
       <c r="AB7" t="n">
-        <v>1338.30324329293</v>
+        <v>1452.113985471102</v>
       </c>
       <c r="AC7" t="n">
-        <v>1210.577460073451</v>
+        <v>1313.526264752518</v>
       </c>
       <c r="AD7" t="n">
-        <v>978117.3014201653</v>
+        <v>1061297.44506088</v>
       </c>
       <c r="AE7" t="n">
-        <v>1338303.24329293</v>
+        <v>1452113.985471102</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.358493273728259e-06</v>
+        <v>2.534514216267512e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.94227430555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1210577.460073451</v>
+        <v>1313526.264752518</v>
       </c>
     </row>
     <row r="8">
@@ -27778,28 +27778,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>973.3305396463063</v>
+        <v>1056.510683287021</v>
       </c>
       <c r="AB8" t="n">
-        <v>1331.753784656911</v>
+        <v>1445.564526835083</v>
       </c>
       <c r="AC8" t="n">
-        <v>1204.653072577431</v>
+        <v>1307.601877256498</v>
       </c>
       <c r="AD8" t="n">
-        <v>973330.5396463063</v>
+        <v>1056510.683287021</v>
       </c>
       <c r="AE8" t="n">
-        <v>1331753.784656911</v>
+        <v>1445564.526835083</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.360720485747019e-06</v>
+        <v>2.538669481982371e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.9140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1204653.072577431</v>
+        <v>1307601.877256498</v>
       </c>
     </row>
     <row r="9">
@@ -27884,28 +27884,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>979.4224646865121</v>
+        <v>1062.602608327227</v>
       </c>
       <c r="AB9" t="n">
-        <v>1340.089025253685</v>
+        <v>1453.899767431857</v>
       </c>
       <c r="AC9" t="n">
-        <v>1212.192809510232</v>
+        <v>1315.1416141893</v>
       </c>
       <c r="AD9" t="n">
-        <v>979422.464686512</v>
+        <v>1062602.608327227</v>
       </c>
       <c r="AE9" t="n">
-        <v>1340089.025253685</v>
+        <v>1453899.767431857</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.360508370316661e-06</v>
+        <v>2.538273742390479e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.91840277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1212192.809510232</v>
+        <v>1315141.6141893</v>
       </c>
     </row>
   </sheetData>
@@ -52410,28 +52410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1422.481443847561</v>
+        <v>1520.945900758388</v>
       </c>
       <c r="AB2" t="n">
-        <v>1946.301866924477</v>
+        <v>2081.02528081513</v>
       </c>
       <c r="AC2" t="n">
-        <v>1760.549548397031</v>
+        <v>1882.415148751459</v>
       </c>
       <c r="AD2" t="n">
-        <v>1422481.443847561</v>
+        <v>1520945.900758388</v>
       </c>
       <c r="AE2" t="n">
-        <v>1946301.866924477</v>
+        <v>2081025.28081513</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.108637975016681e-06</v>
+        <v>2.131951938252886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.47569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1760549.548397031</v>
+        <v>1882415.148751459</v>
       </c>
     </row>
     <row r="3">
@@ -52516,28 +52516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1069.74754050906</v>
+        <v>1150.363692981474</v>
       </c>
       <c r="AB3" t="n">
-        <v>1463.675778855203</v>
+        <v>1573.978355201599</v>
       </c>
       <c r="AC3" t="n">
-        <v>1323.98461680312</v>
+        <v>1423.760070073654</v>
       </c>
       <c r="AD3" t="n">
-        <v>1069747.54050906</v>
+        <v>1150363.692981474</v>
       </c>
       <c r="AE3" t="n">
-        <v>1463675.778855203</v>
+        <v>1573978.355201599</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.295696633839387e-06</v>
+        <v>2.491672675978881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.37673611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1323984.61680312</v>
+        <v>1423760.070073654</v>
       </c>
     </row>
     <row r="4">
@@ -52622,28 +52622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>954.8033004425515</v>
+        <v>1035.334112060393</v>
       </c>
       <c r="AB4" t="n">
-        <v>1306.403998614226</v>
+        <v>1416.589807838425</v>
       </c>
       <c r="AC4" t="n">
-        <v>1181.722634536012</v>
+        <v>1281.392464774607</v>
       </c>
       <c r="AD4" t="n">
-        <v>954803.3004425515</v>
+        <v>1035334.112060393</v>
       </c>
       <c r="AE4" t="n">
-        <v>1306403.998614226</v>
+        <v>1416589.807838425</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.360755745089747e-06</v>
+        <v>2.616783759539886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.49782986111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1181722.634536012</v>
+        <v>1281392.464774607</v>
       </c>
     </row>
     <row r="5">
@@ -52728,28 +52728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>892.9940710061737</v>
+        <v>964.7287416866664</v>
       </c>
       <c r="AB5" t="n">
-        <v>1221.833884068622</v>
+        <v>1319.984425203988</v>
       </c>
       <c r="AC5" t="n">
-        <v>1105.223773027739</v>
+        <v>1194.006964272295</v>
       </c>
       <c r="AD5" t="n">
-        <v>892994.0710061737</v>
+        <v>964728.7416866664</v>
       </c>
       <c r="AE5" t="n">
-        <v>1221833.884068622</v>
+        <v>1319984.425203988</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.391804191099615e-06</v>
+        <v>2.676491072605256e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.10720486111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1105223.773027739</v>
+        <v>1194006.964272295</v>
       </c>
     </row>
     <row r="6">
@@ -52834,28 +52834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>891.265022424536</v>
+        <v>962.9996931050289</v>
       </c>
       <c r="AB6" t="n">
-        <v>1219.468123518986</v>
+        <v>1317.618664654352</v>
       </c>
       <c r="AC6" t="n">
-        <v>1103.083797344594</v>
+        <v>1191.86698858915</v>
       </c>
       <c r="AD6" t="n">
-        <v>891265.0224245361</v>
+        <v>962999.6931050288</v>
       </c>
       <c r="AE6" t="n">
-        <v>1219468.123518985</v>
+        <v>1317618.664654352</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.394546986683526e-06</v>
+        <v>2.681765570225872e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.07248263888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1103083.797344594</v>
+        <v>1191866.98858915</v>
       </c>
     </row>
   </sheetData>
@@ -53131,28 +53131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>795.8505236249213</v>
+        <v>879.7858502713759</v>
       </c>
       <c r="AB2" t="n">
-        <v>1088.917796870749</v>
+        <v>1203.761813753698</v>
       </c>
       <c r="AC2" t="n">
-        <v>984.9930106431308</v>
+        <v>1088.876475739361</v>
       </c>
       <c r="AD2" t="n">
-        <v>795850.5236249212</v>
+        <v>879785.850271376</v>
       </c>
       <c r="AE2" t="n">
-        <v>1088917.796870749</v>
+        <v>1203761.813753698</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361356933268151e-06</v>
+        <v>2.807933886691352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.77170138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>984993.0106431308</v>
+        <v>1088876.475739361</v>
       </c>
     </row>
     <row r="3">
@@ -53237,28 +53237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>705.7140475624003</v>
+        <v>781.3326483133239</v>
       </c>
       <c r="AB3" t="n">
-        <v>965.5890937813343</v>
+        <v>1069.053799385966</v>
       </c>
       <c r="AC3" t="n">
-        <v>873.434625883648</v>
+        <v>967.0248051990001</v>
       </c>
       <c r="AD3" t="n">
-        <v>705714.0475624003</v>
+        <v>781332.648313324</v>
       </c>
       <c r="AE3" t="n">
-        <v>965589.0937813343</v>
+        <v>1069053.799385966</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.436837410235964e-06</v>
+        <v>2.963619867261299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.78428819444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>873434.6258836479</v>
+        <v>967024.8051990001</v>
       </c>
     </row>
   </sheetData>
@@ -53534,28 +53534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3387.617469829875</v>
+        <v>3536.100267182093</v>
       </c>
       <c r="AB2" t="n">
-        <v>4635.087673356536</v>
+        <v>4838.248387292555</v>
       </c>
       <c r="AC2" t="n">
-        <v>4192.721411197621</v>
+        <v>4376.492751733431</v>
       </c>
       <c r="AD2" t="n">
-        <v>3387617.469829875</v>
+        <v>3536100.267182094</v>
       </c>
       <c r="AE2" t="n">
-        <v>4635087.673356536</v>
+        <v>4838248.387292555</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.295148774354646e-07</v>
+        <v>1.281728861914837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4192721.411197621</v>
+        <v>4376492.751733431</v>
       </c>
     </row>
     <row r="3">
@@ -53640,28 +53640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1996.004368896255</v>
+        <v>2104.846262367725</v>
       </c>
       <c r="AB3" t="n">
-        <v>2731.021235021826</v>
+        <v>2879.943515434938</v>
       </c>
       <c r="AC3" t="n">
-        <v>2470.376401363719</v>
+        <v>2605.085748347938</v>
       </c>
       <c r="AD3" t="n">
-        <v>1996004.368896255</v>
+        <v>2104846.262367724</v>
       </c>
       <c r="AE3" t="n">
-        <v>2731021.235021826</v>
+        <v>2879943.515434938</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.005150965710554e-06</v>
+        <v>1.766010595783576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.26085069444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2470376.401363719</v>
+        <v>2605085.748347938</v>
       </c>
     </row>
     <row r="4">
@@ -53746,28 +53746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1704.833495291509</v>
+        <v>1803.765162792791</v>
       </c>
       <c r="AB4" t="n">
-        <v>2332.628400203463</v>
+        <v>2467.991072235851</v>
       </c>
       <c r="AC4" t="n">
-        <v>2110.005619552565</v>
+        <v>2232.449468148886</v>
       </c>
       <c r="AD4" t="n">
-        <v>1704833.495291509</v>
+        <v>1803765.162792791</v>
       </c>
       <c r="AE4" t="n">
-        <v>2332628.400203463</v>
+        <v>2467991.072235851</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.105400175379737e-06</v>
+        <v>1.94214450256399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.33159722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2110005.619552565</v>
+        <v>2232449.468148886</v>
       </c>
     </row>
     <row r="5">
@@ -53852,28 +53852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1573.277373300018</v>
+        <v>1662.384155685683</v>
       </c>
       <c r="AB5" t="n">
-        <v>2152.627510248216</v>
+        <v>2274.547341022078</v>
       </c>
       <c r="AC5" t="n">
-        <v>1947.183761901812</v>
+        <v>2057.467735142174</v>
       </c>
       <c r="AD5" t="n">
-        <v>1573277.373300018</v>
+        <v>1662384.155685683</v>
       </c>
       <c r="AE5" t="n">
-        <v>2152627.510248216</v>
+        <v>2274547.341022078</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.157592789451119e-06</v>
+        <v>2.033844866604873e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.46137152777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1947183.761901811</v>
+        <v>2057467.735142174</v>
       </c>
     </row>
     <row r="6">
@@ -53958,28 +53958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1488.213825522832</v>
+        <v>1587.145403515563</v>
       </c>
       <c r="AB6" t="n">
-        <v>2036.239811440599</v>
+        <v>2171.602361003439</v>
       </c>
       <c r="AC6" t="n">
-        <v>1841.903941717232</v>
+        <v>1964.347679532326</v>
       </c>
       <c r="AD6" t="n">
-        <v>1488213.825522832</v>
+        <v>1587145.403515563</v>
       </c>
       <c r="AE6" t="n">
-        <v>2036239.811440599</v>
+        <v>2171602.361003439</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.190188554088151e-06</v>
+        <v>2.091114339241727e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.95572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1841903.941717232</v>
+        <v>1964347.679532326</v>
       </c>
     </row>
     <row r="7">
@@ -54064,28 +54064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1439.43097131419</v>
+        <v>1528.623005045876</v>
       </c>
       <c r="AB7" t="n">
-        <v>1969.492958164697</v>
+        <v>2091.529433591209</v>
       </c>
       <c r="AC7" t="n">
-        <v>1781.527314438186</v>
+        <v>1891.916799929261</v>
       </c>
       <c r="AD7" t="n">
-        <v>1439430.97131419</v>
+        <v>1528623.005045876</v>
       </c>
       <c r="AE7" t="n">
-        <v>1969492.958164697</v>
+        <v>2091529.433591209</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.211164076347028e-06</v>
+        <v>2.127967504412874e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.64539930555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1781527.314438186</v>
+        <v>1891916.799929261</v>
       </c>
     </row>
     <row r="8">
@@ -54170,28 +54170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1396.867704722581</v>
+        <v>1485.889146253676</v>
       </c>
       <c r="AB8" t="n">
-        <v>1911.256019055262</v>
+        <v>2033.059082706927</v>
       </c>
       <c r="AC8" t="n">
-        <v>1728.848427061297</v>
+        <v>1839.026777269721</v>
       </c>
       <c r="AD8" t="n">
-        <v>1396867.704722581</v>
+        <v>1485889.146253676</v>
       </c>
       <c r="AE8" t="n">
-        <v>1911256.019055262</v>
+        <v>2033059.082706927</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.227708150241352e-06</v>
+        <v>2.157034789618286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.40668402777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1728848.427061297</v>
+        <v>1839026.777269721</v>
       </c>
     </row>
     <row r="9">
@@ -54276,28 +54276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1364.641680800168</v>
+        <v>1453.663122331263</v>
       </c>
       <c r="AB9" t="n">
-        <v>1867.162951412781</v>
+        <v>1988.966015064446</v>
       </c>
       <c r="AC9" t="n">
-        <v>1688.963539909606</v>
+        <v>1799.141890118029</v>
       </c>
       <c r="AD9" t="n">
-        <v>1364641.680800168</v>
+        <v>1453663.122331263</v>
       </c>
       <c r="AE9" t="n">
-        <v>1867162.951412781</v>
+        <v>1988966.015064446</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.239722299140802e-06</v>
+        <v>2.178143175303169e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.23741319444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1688963.539909606</v>
+        <v>1799141.890118029</v>
       </c>
     </row>
     <row r="10">
@@ -54382,28 +54382,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1334.993175995944</v>
+        <v>1414.275073265994</v>
       </c>
       <c r="AB10" t="n">
-        <v>1826.596559139923</v>
+        <v>1935.07354865526</v>
       </c>
       <c r="AC10" t="n">
-        <v>1652.26874717998</v>
+        <v>1750.392845064384</v>
       </c>
       <c r="AD10" t="n">
-        <v>1334993.175995944</v>
+        <v>1414275.073265994</v>
       </c>
       <c r="AE10" t="n">
-        <v>1826596.559139923</v>
+        <v>1935073.54865526</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.249668438803462e-06</v>
+        <v>2.195618150337375e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.10069444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1652268.74717998</v>
+        <v>1750392.845064384</v>
       </c>
     </row>
     <row r="11">
@@ -54488,28 +54488,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1310.415649182419</v>
+        <v>1389.697546452469</v>
       </c>
       <c r="AB11" t="n">
-        <v>1792.9685026697</v>
+        <v>1901.445492185037</v>
       </c>
       <c r="AC11" t="n">
-        <v>1621.850105222002</v>
+        <v>1719.974203106406</v>
       </c>
       <c r="AD11" t="n">
-        <v>1310415.649182419</v>
+        <v>1389697.546452469</v>
       </c>
       <c r="AE11" t="n">
-        <v>1792968.5026697</v>
+        <v>1901445.492185037</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.256364849665451e-06</v>
+        <v>2.207383480063375e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.00954861111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1621850.105222002</v>
+        <v>1719974.203106406</v>
       </c>
     </row>
     <row r="12">
@@ -54594,28 +54594,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1276.541943073963</v>
+        <v>1365.648635951078</v>
       </c>
       <c r="AB12" t="n">
-        <v>1746.621003569667</v>
+        <v>1868.540711873981</v>
       </c>
       <c r="AC12" t="n">
-        <v>1579.925946386952</v>
+        <v>1690.209808846088</v>
       </c>
       <c r="AD12" t="n">
-        <v>1276541.943073963</v>
+        <v>1365648.635951078</v>
       </c>
       <c r="AE12" t="n">
-        <v>1746621.003569667</v>
+        <v>1868540.711873981</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.263061260527439e-06</v>
+        <v>2.219148809789375e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.91840277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1579925.946386952</v>
+        <v>1690209.808846088</v>
       </c>
     </row>
     <row r="13">
@@ -54700,28 +54700,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1252.527264471963</v>
+        <v>1341.633957349078</v>
       </c>
       <c r="AB13" t="n">
-        <v>1713.763060853563</v>
+        <v>1835.682769157877</v>
       </c>
       <c r="AC13" t="n">
-        <v>1550.203919607261</v>
+        <v>1660.487782066397</v>
       </c>
       <c r="AD13" t="n">
-        <v>1252527.264471963</v>
+        <v>1341633.957349078</v>
       </c>
       <c r="AE13" t="n">
-        <v>1713763.060853563</v>
+        <v>1835682.769157877</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.268378998564901e-06</v>
+        <v>2.228491865748258e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.84895833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1550203.919607261</v>
+        <v>1660487.782066397</v>
       </c>
     </row>
     <row r="14">
@@ -54806,28 +54806,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1234.39433365151</v>
+        <v>1323.501026528625</v>
       </c>
       <c r="AB14" t="n">
-        <v>1688.95278493657</v>
+        <v>1810.872493240885</v>
       </c>
       <c r="AC14" t="n">
-        <v>1527.761501602345</v>
+        <v>1638.045364061481</v>
       </c>
       <c r="AD14" t="n">
-        <v>1234394.33365151</v>
+        <v>1323501.026528625</v>
       </c>
       <c r="AE14" t="n">
-        <v>1688952.78493657</v>
+        <v>1810872.493240885</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.272022633886865e-06</v>
+        <v>2.234893589275641e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.80121527777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1527761.501602345</v>
+        <v>1638045.364061481</v>
       </c>
     </row>
     <row r="15">
@@ -54912,28 +54912,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1213.858691128462</v>
+        <v>1302.965384005577</v>
       </c>
       <c r="AB15" t="n">
-        <v>1660.855012867928</v>
+        <v>1782.774721172242</v>
       </c>
       <c r="AC15" t="n">
-        <v>1502.345341464463</v>
+        <v>1612.629203923598</v>
       </c>
       <c r="AD15" t="n">
-        <v>1213858.691128462</v>
+        <v>1302965.384005577</v>
       </c>
       <c r="AE15" t="n">
-        <v>1660855.012867928</v>
+        <v>1782774.721172242</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.275764745839153e-06</v>
+        <v>2.241468332357817e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.75130208333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1502345.341464463</v>
+        <v>1612629.203923598</v>
       </c>
     </row>
     <row r="16">
@@ -55018,28 +55018,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1213.043489273819</v>
+        <v>1302.150182150934</v>
       </c>
       <c r="AB16" t="n">
-        <v>1659.739617726237</v>
+        <v>1781.659326030551</v>
       </c>
       <c r="AC16" t="n">
-        <v>1501.336398069628</v>
+        <v>1611.620260528764</v>
       </c>
       <c r="AD16" t="n">
-        <v>1213043.489273819</v>
+        <v>1302150.182150934</v>
       </c>
       <c r="AE16" t="n">
-        <v>1659739.617726237</v>
+        <v>1781659.326030551</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.276158652360446e-06</v>
+        <v>2.242160410576993e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1501336.398069628</v>
+        <v>1611620.260528764</v>
       </c>
     </row>
     <row r="17">
@@ -55124,28 +55124,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1216.073688924148</v>
+        <v>1305.180381801262</v>
       </c>
       <c r="AB17" t="n">
-        <v>1663.885670570791</v>
+        <v>1785.805378875106</v>
       </c>
       <c r="AC17" t="n">
-        <v>1505.08675744972</v>
+        <v>1615.370619908856</v>
       </c>
       <c r="AD17" t="n">
-        <v>1216073.688924148</v>
+        <v>1305180.381801262</v>
       </c>
       <c r="AE17" t="n">
-        <v>1663885.670570791</v>
+        <v>1785805.378875106</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.27655255888174e-06</v>
+        <v>2.24285248879617e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.74045138888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1505086.75744972</v>
+        <v>1615370.619908856</v>
       </c>
     </row>
     <row r="18">
@@ -55230,28 +55230,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1221.951485096052</v>
+        <v>1311.058177973167</v>
       </c>
       <c r="AB18" t="n">
-        <v>1671.927930603256</v>
+        <v>1793.847638907571</v>
       </c>
       <c r="AC18" t="n">
-        <v>1512.361475472069</v>
+        <v>1622.645337931205</v>
       </c>
       <c r="AD18" t="n">
-        <v>1221951.485096052</v>
+        <v>1311058.177973167</v>
       </c>
       <c r="AE18" t="n">
-        <v>1671927.930603256</v>
+        <v>1793847.638907571</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.276454082251417e-06</v>
+        <v>2.242679469241376e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.74262152777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>1512361.475472069</v>
+        <v>1622645.337931205</v>
       </c>
     </row>
   </sheetData>
@@ -55527,28 +55527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4893.294734744371</v>
+        <v>5077.851715793279</v>
       </c>
       <c r="AB2" t="n">
-        <v>6695.221733005498</v>
+        <v>6947.740736555995</v>
       </c>
       <c r="AC2" t="n">
-        <v>6056.239167609921</v>
+        <v>6284.658111874195</v>
       </c>
       <c r="AD2" t="n">
-        <v>4893294.734744371</v>
+        <v>5077851.715793279</v>
       </c>
       <c r="AE2" t="n">
-        <v>6695221.733005499</v>
+        <v>6947740.736555994</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.965113194248579e-07</v>
+        <v>1.019967879566114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.52256944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>6056239.167609921</v>
+        <v>6284658.111874195</v>
       </c>
     </row>
     <row r="3">
@@ -55633,28 +55633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2498.086968379204</v>
+        <v>2621.096508793618</v>
       </c>
       <c r="AB3" t="n">
-        <v>3417.99279795559</v>
+        <v>3586.299877948521</v>
       </c>
       <c r="AC3" t="n">
-        <v>3091.7843625016</v>
+        <v>3244.02845100047</v>
       </c>
       <c r="AD3" t="n">
-        <v>2498086.968379204</v>
+        <v>2621096.508793619</v>
       </c>
       <c r="AE3" t="n">
-        <v>3417992.797955589</v>
+        <v>3586299.877948521</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.987525781534884e-07</v>
+        <v>1.536766749502174e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.91449652777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3091784.3625016</v>
+        <v>3244028.45100047</v>
       </c>
     </row>
     <row r="4">
@@ -55739,28 +55739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2070.890887962102</v>
+        <v>2173.384704340236</v>
       </c>
       <c r="AB4" t="n">
-        <v>2833.484274167769</v>
+        <v>2973.720835444386</v>
       </c>
       <c r="AC4" t="n">
-        <v>2563.060511861353</v>
+        <v>2689.913092552979</v>
       </c>
       <c r="AD4" t="n">
-        <v>2070890.887962101</v>
+        <v>2173384.704340236</v>
       </c>
       <c r="AE4" t="n">
-        <v>2833484.27416777</v>
+        <v>2973720.835444386</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.013006416617938e-06</v>
+        <v>1.732128080554927e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.32769097222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2563060.511861353</v>
+        <v>2689913.092552979</v>
       </c>
     </row>
     <row r="5">
@@ -55845,28 +55845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1888.393754106702</v>
+        <v>1990.802229630265</v>
       </c>
       <c r="AB5" t="n">
-        <v>2583.783644421492</v>
+        <v>2723.903438575911</v>
       </c>
       <c r="AC5" t="n">
-        <v>2337.190959761025</v>
+        <v>2463.937917420712</v>
       </c>
       <c r="AD5" t="n">
-        <v>1888393.754106702</v>
+        <v>1990802.229630265</v>
       </c>
       <c r="AE5" t="n">
-        <v>2583783.644421492</v>
+        <v>2723903.438575911</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.073075087504978e-06</v>
+        <v>1.834838813575186e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2337190.959761025</v>
+        <v>2463937.917420712</v>
       </c>
     </row>
     <row r="6">
@@ -55951,28 +55951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1779.131174272367</v>
+        <v>1881.624901141952</v>
       </c>
       <c r="AB6" t="n">
-        <v>2434.285762367335</v>
+        <v>2574.522201174404</v>
       </c>
       <c r="AC6" t="n">
-        <v>2201.960945748522</v>
+        <v>2328.813415658921</v>
       </c>
       <c r="AD6" t="n">
-        <v>1779131.174272367</v>
+        <v>1881624.901141952</v>
       </c>
       <c r="AE6" t="n">
-        <v>2434285.762367335</v>
+        <v>2574522.201174404</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.110938278158894e-06</v>
+        <v>1.899580650028714e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.53732638888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2201960.945748521</v>
+        <v>2328813.415658921</v>
       </c>
     </row>
     <row r="7">
@@ -56057,28 +56057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1713.727771110829</v>
+        <v>1805.963680716549</v>
       </c>
       <c r="AB7" t="n">
-        <v>2344.797940767211</v>
+        <v>2470.999181450901</v>
       </c>
       <c r="AC7" t="n">
-        <v>2121.013716244967</v>
+        <v>2235.17048764236</v>
       </c>
       <c r="AD7" t="n">
-        <v>1713727.771110829</v>
+        <v>1805963.680716549</v>
       </c>
       <c r="AE7" t="n">
-        <v>2344797.940767211</v>
+        <v>2470999.181450901</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.136370195690848e-06</v>
+        <v>1.943066394814543e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.12282986111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2121013.716244967</v>
+        <v>2235170.48764236</v>
       </c>
     </row>
     <row r="8">
@@ -56163,28 +56163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1658.755990029717</v>
+        <v>1761.164376044729</v>
       </c>
       <c r="AB8" t="n">
-        <v>2269.583124708213</v>
+        <v>2409.702796393084</v>
       </c>
       <c r="AC8" t="n">
-        <v>2052.977296665983</v>
+        <v>2179.724143544443</v>
       </c>
       <c r="AD8" t="n">
-        <v>1658755.990029717</v>
+        <v>1761164.376044729</v>
       </c>
       <c r="AE8" t="n">
-        <v>2269583.124708213</v>
+        <v>2409702.796393084</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.154115600834413e-06</v>
+        <v>1.97340906001958e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.84288194444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>2052977.296665982</v>
+        <v>2179724.143544443</v>
       </c>
     </row>
     <row r="9">
@@ -56269,28 +56269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1619.169729740035</v>
+        <v>1711.490890691775</v>
       </c>
       <c r="AB9" t="n">
-        <v>2215.419456957323</v>
+        <v>2341.737342293662</v>
       </c>
       <c r="AC9" t="n">
-        <v>2003.982933346052</v>
+        <v>2118.245216994157</v>
       </c>
       <c r="AD9" t="n">
-        <v>1619169.729740035</v>
+        <v>1711490.890691775</v>
       </c>
       <c r="AE9" t="n">
-        <v>2215419.456957323</v>
+        <v>2341737.342293662</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.169109044752505e-06</v>
+        <v>1.99904617821421e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.61501736111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>2003982.933346052</v>
+        <v>2118245.216994157</v>
       </c>
     </row>
     <row r="10">
@@ -56375,28 +56375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1589.36180513117</v>
+        <v>1681.512373882317</v>
       </c>
       <c r="AB10" t="n">
-        <v>2174.63493947465</v>
+        <v>2300.719413036143</v>
       </c>
       <c r="AC10" t="n">
-        <v>1967.090832970496</v>
+        <v>2081.141981335949</v>
       </c>
       <c r="AD10" t="n">
-        <v>1589361.80513117</v>
+        <v>1681512.373882317</v>
       </c>
       <c r="AE10" t="n">
-        <v>2174634.93947465</v>
+        <v>2300719.413036142</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.179357727937024e-06</v>
+        <v>2.016570284321932e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.46310763888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1967090.832970496</v>
+        <v>2081141.981335949</v>
       </c>
     </row>
     <row r="11">
@@ -56481,28 +56481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1561.177115711869</v>
+        <v>1653.327684463017</v>
       </c>
       <c r="AB11" t="n">
-        <v>2136.071403990423</v>
+        <v>2262.155877551915</v>
       </c>
       <c r="AC11" t="n">
-        <v>1932.207747188621</v>
+        <v>2046.258895554075</v>
       </c>
       <c r="AD11" t="n">
-        <v>1561177.115711869</v>
+        <v>1653327.684463017</v>
       </c>
       <c r="AE11" t="n">
-        <v>2136071.403990423</v>
+        <v>2262155.877551915</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.188942144618842e-06</v>
+        <v>2.032958568737487e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.32204861111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1932207.747188621</v>
+        <v>2046258.895554075</v>
       </c>
     </row>
     <row r="12">
@@ -56587,28 +56587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1540.912957362494</v>
+        <v>1633.063526113642</v>
       </c>
       <c r="AB12" t="n">
-        <v>2108.345088545236</v>
+        <v>2234.429562106728</v>
       </c>
       <c r="AC12" t="n">
-        <v>1907.127592375395</v>
+        <v>2021.178740740848</v>
       </c>
       <c r="AD12" t="n">
-        <v>1540912.957362494</v>
+        <v>1633063.526113642</v>
       </c>
       <c r="AE12" t="n">
-        <v>2108345.088545236</v>
+        <v>2234429.562106728</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.196249076148545e-06</v>
+        <v>2.045452607351326e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.21571180555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1907127.592375395</v>
+        <v>2021178.740740848</v>
       </c>
     </row>
     <row r="13">
@@ -56693,28 +56693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1517.742959098713</v>
+        <v>1599.806302786589</v>
       </c>
       <c r="AB13" t="n">
-        <v>2076.64287473255</v>
+        <v>2188.925561945511</v>
       </c>
       <c r="AC13" t="n">
-        <v>1878.450993354655</v>
+        <v>1980.017578489752</v>
       </c>
       <c r="AD13" t="n">
-        <v>1517742.959098713</v>
+        <v>1599806.302786589</v>
       </c>
       <c r="AE13" t="n">
-        <v>2076642.87473255</v>
+        <v>2188925.561945511</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.202227474672848e-06</v>
+        <v>2.05567500258083e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.12890625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1878450.993354655</v>
+        <v>1980017.578489752</v>
       </c>
     </row>
     <row r="14">
@@ -56799,28 +56799,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1499.572654377371</v>
+        <v>1581.635998065247</v>
       </c>
       <c r="AB14" t="n">
-        <v>2051.781462195541</v>
+        <v>2164.064149408503</v>
       </c>
       <c r="AC14" t="n">
-        <v>1855.962319136966</v>
+        <v>1957.528904272064</v>
       </c>
       <c r="AD14" t="n">
-        <v>1499572.654377372</v>
+        <v>1581635.998065247</v>
       </c>
       <c r="AE14" t="n">
-        <v>2051781.462195541</v>
+        <v>2164064.149408503</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.207636501909122e-06</v>
+        <v>2.064923836359906e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.05295138888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1855962.319136966</v>
+        <v>1957528.904272064</v>
       </c>
     </row>
     <row r="15">
@@ -56905,28 +56905,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1470.94516506326</v>
+        <v>1563.180985160429</v>
       </c>
       <c r="AB15" t="n">
-        <v>2012.612068360281</v>
+        <v>2138.813186574423</v>
       </c>
       <c r="AC15" t="n">
-        <v>1820.531197274754</v>
+        <v>1934.68785789092</v>
       </c>
       <c r="AD15" t="n">
-        <v>1470945.16506326</v>
+        <v>1563180.985160429</v>
       </c>
       <c r="AE15" t="n">
-        <v>2012612.068360281</v>
+        <v>2138813.186574423</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.212476157857367e-06</v>
+        <v>2.073199108688553e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.98567708333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1820531.197274754</v>
+        <v>1934687.85789092</v>
       </c>
     </row>
     <row r="16">
@@ -57011,28 +57011,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1455.001344810376</v>
+        <v>1547.237164907544</v>
       </c>
       <c r="AB16" t="n">
-        <v>1990.797030098577</v>
+        <v>2116.998148312719</v>
       </c>
       <c r="AC16" t="n">
-        <v>1800.798155647149</v>
+        <v>1914.954816263315</v>
       </c>
       <c r="AD16" t="n">
-        <v>1455001.344810376</v>
+        <v>1547237.164907544</v>
       </c>
       <c r="AE16" t="n">
-        <v>1990797.030098577</v>
+        <v>2116998.148312719</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.215797490370868e-06</v>
+        <v>2.078878217149388e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.93793402777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1800798.155647149</v>
+        <v>1914954.816263315</v>
       </c>
     </row>
     <row r="17">
@@ -57117,28 +57117,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1440.639797963987</v>
+        <v>1532.875618061156</v>
       </c>
       <c r="AB17" t="n">
-        <v>1971.146928116618</v>
+        <v>2097.34804633076</v>
       </c>
       <c r="AC17" t="n">
-        <v>1783.023431819256</v>
+        <v>1897.180092435422</v>
       </c>
       <c r="AD17" t="n">
-        <v>1440639.797963987</v>
+        <v>1532875.618061156</v>
       </c>
       <c r="AE17" t="n">
-        <v>1971146.928116618</v>
+        <v>2097348.04633076</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.219593298957727e-06</v>
+        <v>2.085368626818915e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.88585069444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>1783023.431819256</v>
+        <v>1897180.092435422</v>
       </c>
     </row>
     <row r="18">
@@ -57223,28 +57223,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1422.768982946713</v>
+        <v>1515.004803043882</v>
       </c>
       <c r="AB18" t="n">
-        <v>1946.695290605268</v>
+        <v>2072.896408819409</v>
       </c>
       <c r="AC18" t="n">
-        <v>1760.905424273901</v>
+        <v>1875.062084890067</v>
       </c>
       <c r="AD18" t="n">
-        <v>1422768.982946713</v>
+        <v>1515004.803043882</v>
       </c>
       <c r="AE18" t="n">
-        <v>1946695.290605268</v>
+        <v>2072896.408819409</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.222724841041886e-06</v>
+        <v>2.090723214796274e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.84244791666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1760905.424273901</v>
+        <v>1875062.084890067</v>
       </c>
     </row>
     <row r="19">
@@ -57329,28 +57329,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1403.147184023982</v>
+        <v>1495.38300412115</v>
       </c>
       <c r="AB19" t="n">
-        <v>1919.847879666513</v>
+        <v>2046.048997880655</v>
       </c>
       <c r="AC19" t="n">
-        <v>1736.620292554563</v>
+        <v>1850.776953170729</v>
       </c>
       <c r="AD19" t="n">
-        <v>1403147.184023982</v>
+        <v>1495383.00412115</v>
       </c>
       <c r="AE19" t="n">
-        <v>1919847.879666513</v>
+        <v>2046048.997880655</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.225192116623344e-06</v>
+        <v>2.094941981081467e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.80772569444444</v>
       </c>
       <c r="AH19" t="n">
-        <v>1736620.292554563</v>
+        <v>1850776.953170729</v>
       </c>
     </row>
     <row r="20">
@@ -57435,28 +57435,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1392.390110480154</v>
+        <v>1484.625930577322</v>
       </c>
       <c r="AB20" t="n">
-        <v>1905.129577075256</v>
+        <v>2031.330695289398</v>
       </c>
       <c r="AC20" t="n">
-        <v>1723.306684105348</v>
+        <v>1837.463344721514</v>
       </c>
       <c r="AD20" t="n">
-        <v>1392390.110480154</v>
+        <v>1484625.930577322</v>
       </c>
       <c r="AE20" t="n">
-        <v>1905129.577075256</v>
+        <v>2031330.695289398</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.226995125702101e-06</v>
+        <v>2.098024925674492e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.78385416666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1723306.684105348</v>
+        <v>1837463.344721514</v>
       </c>
     </row>
     <row r="21">
@@ -57541,28 +57541,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1376.795166855364</v>
+        <v>1469.030986952532</v>
       </c>
       <c r="AB21" t="n">
-        <v>1883.791887207462</v>
+        <v>2009.993005421603</v>
       </c>
       <c r="AC21" t="n">
-        <v>1704.0054334109</v>
+        <v>1818.162094027066</v>
       </c>
       <c r="AD21" t="n">
-        <v>1376795.166855363</v>
+        <v>1469030.986952532</v>
       </c>
       <c r="AE21" t="n">
-        <v>1883791.887207462</v>
+        <v>2009993.005421603</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.229557296498231e-06</v>
+        <v>2.102405952201423e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.74913194444444</v>
       </c>
       <c r="AH21" t="n">
-        <v>1704005.4334109</v>
+        <v>1818162.094027066</v>
       </c>
     </row>
     <row r="22">
@@ -57647,28 +57647,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1364.005232149687</v>
+        <v>1456.241052246856</v>
       </c>
       <c r="AB22" t="n">
-        <v>1866.292134291059</v>
+        <v>1992.493252505201</v>
       </c>
       <c r="AC22" t="n">
-        <v>1688.175832351782</v>
+        <v>1802.332492967947</v>
       </c>
       <c r="AD22" t="n">
-        <v>1364005.232149687</v>
+        <v>1456241.052246856</v>
       </c>
       <c r="AE22" t="n">
-        <v>1866292.134291059</v>
+        <v>1992493.252505201</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.232024572079689e-06</v>
+        <v>2.106624718486614e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.71440972222222</v>
       </c>
       <c r="AH22" t="n">
-        <v>1688175.832351781</v>
+        <v>1802332.492967947</v>
       </c>
     </row>
     <row r="23">
@@ -57753,28 +57753,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1366.303536827592</v>
+        <v>1458.53935692476</v>
       </c>
       <c r="AB23" t="n">
-        <v>1869.436776145415</v>
+        <v>1995.637894359557</v>
       </c>
       <c r="AC23" t="n">
-        <v>1691.02035400109</v>
+        <v>1805.177014617256</v>
       </c>
       <c r="AD23" t="n">
-        <v>1366303.536827592</v>
+        <v>1458539.35692476</v>
       </c>
       <c r="AE23" t="n">
-        <v>1869436.776145415</v>
+        <v>1995637.894359557</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.231360305576989e-06</v>
+        <v>2.105488896794448e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.72526041666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1691020.35400109</v>
+        <v>1805177.014617256</v>
       </c>
     </row>
     <row r="24">
@@ -57859,28 +57859,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1367.552455177673</v>
+        <v>1459.788275274841</v>
       </c>
       <c r="AB24" t="n">
-        <v>1871.145601330384</v>
+        <v>1997.346719544526</v>
       </c>
       <c r="AC24" t="n">
-        <v>1692.566091308757</v>
+        <v>1806.722751924923</v>
       </c>
       <c r="AD24" t="n">
-        <v>1367552.455177672</v>
+        <v>1459788.275274841</v>
       </c>
       <c r="AE24" t="n">
-        <v>1871145.601330384</v>
+        <v>1997346.719544526</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.232593943367718e-06</v>
+        <v>2.107598279937044e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.70789930555556</v>
       </c>
       <c r="AH24" t="n">
-        <v>1692566.091308757</v>
+        <v>1806722.751924923</v>
       </c>
     </row>
   </sheetData>
@@ -58156,28 +58156,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.3412506462134</v>
+        <v>701.6351944591142</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.7782666586255</v>
+        <v>960.0082270191195</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.7720601565046</v>
+        <v>868.386389212423</v>
       </c>
       <c r="AD2" t="n">
-        <v>620341.2506462134</v>
+        <v>701635.1944591142</v>
       </c>
       <c r="AE2" t="n">
-        <v>848778.2666586256</v>
+        <v>960008.2270191195</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.421515801974851e-06</v>
+        <v>3.046963100251251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.61545138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>767772.0601565046</v>
+        <v>868386.389212423</v>
       </c>
     </row>
     <row r="3">
@@ -58262,28 +58262,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>630.9259487510157</v>
+        <v>712.2198925639166</v>
       </c>
       <c r="AB3" t="n">
-        <v>863.2607175695396</v>
+        <v>974.4906779300337</v>
       </c>
       <c r="AC3" t="n">
-        <v>780.8723262787289</v>
+        <v>881.486655334647</v>
       </c>
       <c r="AD3" t="n">
-        <v>630925.9487510157</v>
+        <v>712219.8925639166</v>
       </c>
       <c r="AE3" t="n">
-        <v>863260.7175695396</v>
+        <v>974490.6779300338</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.421515801974851e-06</v>
+        <v>3.046963100251251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.61545138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>780872.3262787289</v>
+        <v>881486.655334647</v>
       </c>
     </row>
   </sheetData>
@@ -58559,28 +58559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2060.129423834124</v>
+        <v>2172.583100189056</v>
       </c>
       <c r="AB2" t="n">
-        <v>2818.75996418558</v>
+        <v>2972.624045280462</v>
       </c>
       <c r="AC2" t="n">
-        <v>2549.741469358165</v>
+        <v>2688.920978502945</v>
       </c>
       <c r="AD2" t="n">
-        <v>2060129.423834124</v>
+        <v>2172583.100189056</v>
       </c>
       <c r="AE2" t="n">
-        <v>2818759.96418558</v>
+        <v>2972624.045280462</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.398749463898601e-07</v>
+        <v>1.731656180157831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.13194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2549741.469358165</v>
+        <v>2688920.978502945</v>
       </c>
     </row>
     <row r="3">
@@ -58665,28 +58665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1418.006540884983</v>
+        <v>1511.618388435185</v>
       </c>
       <c r="AB3" t="n">
-        <v>1940.179107272293</v>
+        <v>2068.262966953722</v>
       </c>
       <c r="AC3" t="n">
-        <v>1755.011136332705</v>
+        <v>1870.870852212964</v>
       </c>
       <c r="AD3" t="n">
-        <v>1418006.540884983</v>
+        <v>1511618.388435185</v>
       </c>
       <c r="AE3" t="n">
-        <v>1940179.107272293</v>
+        <v>2068262.966953722</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167710750140544e-06</v>
+        <v>2.151428277649666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.42274305555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1755011.136332705</v>
+        <v>1870870.852212964</v>
       </c>
     </row>
     <row r="4">
@@ -58771,28 +58771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1257.001348434595</v>
+        <v>1341.320292864289</v>
       </c>
       <c r="AB4" t="n">
-        <v>1719.88469991389</v>
+        <v>1835.253599571889</v>
       </c>
       <c r="AC4" t="n">
-        <v>1555.741318027445</v>
+        <v>1660.099571823352</v>
       </c>
       <c r="AD4" t="n">
-        <v>1257001.348434595</v>
+        <v>1341320.292864289</v>
       </c>
       <c r="AE4" t="n">
-        <v>1719884.69991389</v>
+        <v>1835253.599571889</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.246721698597202e-06</v>
+        <v>2.297000619715642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.19227430555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1555741.318027445</v>
+        <v>1660099.571823352</v>
       </c>
     </row>
     <row r="5">
@@ -58877,28 +58877,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1170.930974159548</v>
+        <v>1255.335169935262</v>
       </c>
       <c r="AB5" t="n">
-        <v>1602.119416673847</v>
+        <v>1717.604960984495</v>
       </c>
       <c r="AC5" t="n">
-        <v>1449.215388135218</v>
+        <v>1553.679154181837</v>
       </c>
       <c r="AD5" t="n">
-        <v>1170930.974159548</v>
+        <v>1255335.169935262</v>
       </c>
       <c r="AE5" t="n">
-        <v>1602119.416673847</v>
+        <v>1717604.960984495</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.287063267518195e-06</v>
+        <v>2.371327238812821e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.62152777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1449215.388135218</v>
+        <v>1553679.154181838</v>
       </c>
     </row>
     <row r="6">
@@ -58983,28 +58983,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1115.199807219405</v>
+        <v>1199.433410794527</v>
       </c>
       <c r="AB6" t="n">
-        <v>1525.865575380783</v>
+        <v>1641.117707916585</v>
       </c>
       <c r="AC6" t="n">
-        <v>1380.239106432226</v>
+        <v>1484.491737196194</v>
       </c>
       <c r="AD6" t="n">
-        <v>1115199.807219405</v>
+        <v>1199433.410794527</v>
       </c>
       <c r="AE6" t="n">
-        <v>1525865.575380783</v>
+        <v>1641117.707916585</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.31298220299075e-06</v>
+        <v>2.419081128802717e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.27430555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1380239.106432226</v>
+        <v>1484491.737196194</v>
       </c>
     </row>
     <row r="7">
@@ -59089,28 +59089,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1071.108342103731</v>
+        <v>1146.134383412917</v>
       </c>
       <c r="AB7" t="n">
-        <v>1465.537687631361</v>
+        <v>1568.19162726593</v>
       </c>
       <c r="AC7" t="n">
-        <v>1325.668827618887</v>
+        <v>1418.525619330441</v>
       </c>
       <c r="AD7" t="n">
-        <v>1071108.342103731</v>
+        <v>1146134.383412917</v>
       </c>
       <c r="AE7" t="n">
-        <v>1465537.687631361</v>
+        <v>1568191.62726593</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.329913120517177e-06</v>
+        <v>2.450275202102569e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.05295138888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1325668.827618886</v>
+        <v>1418525.619330442</v>
       </c>
     </row>
     <row r="8">
@@ -59195,28 +59195,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1024.411659691917</v>
+        <v>1108.73051461306</v>
       </c>
       <c r="AB8" t="n">
-        <v>1401.645226643285</v>
+        <v>1517.014003831735</v>
       </c>
       <c r="AC8" t="n">
-        <v>1267.87417343388</v>
+        <v>1372.232316448561</v>
       </c>
       <c r="AD8" t="n">
-        <v>1024411.659691917</v>
+        <v>1108730.51461306</v>
       </c>
       <c r="AE8" t="n">
-        <v>1401645.226643285</v>
+        <v>1517014.003831735</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.342036493560791e-06</v>
+        <v>2.472611699033327e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.90104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1267874.17343388</v>
+        <v>1372232.316448561</v>
       </c>
     </row>
     <row r="9">
@@ -59301,28 +59301,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1014.482896633188</v>
+        <v>1098.801751554332</v>
       </c>
       <c r="AB9" t="n">
-        <v>1388.060255000221</v>
+        <v>1503.429032188671</v>
       </c>
       <c r="AC9" t="n">
-        <v>1255.585732417802</v>
+        <v>1359.943875432483</v>
       </c>
       <c r="AD9" t="n">
-        <v>1014482.896633188</v>
+        <v>1098801.751554332</v>
       </c>
       <c r="AE9" t="n">
-        <v>1388060.255000221</v>
+        <v>1503429.032188671</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345485384168026e-06</v>
+        <v>2.478966047298112e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.85763888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1255585.732417802</v>
+        <v>1359943.875432483</v>
       </c>
     </row>
     <row r="10">
@@ -59407,28 +59407,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1020.668284113626</v>
+        <v>1104.98713903477</v>
       </c>
       <c r="AB10" t="n">
-        <v>1396.523375030993</v>
+        <v>1511.892152219443</v>
       </c>
       <c r="AC10" t="n">
-        <v>1263.241144150901</v>
+        <v>1367.599287165582</v>
       </c>
       <c r="AD10" t="n">
-        <v>1020668.284113626</v>
+        <v>1104987.139034769</v>
       </c>
       <c r="AE10" t="n">
-        <v>1396523.375030993</v>
+        <v>1511892.152219443</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.345380872331443e-06</v>
+        <v>2.478773491290088e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.85763888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1263241.144150901</v>
+        <v>1367599.287165582</v>
       </c>
     </row>
   </sheetData>
@@ -59704,28 +59704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2805.229766051874</v>
+        <v>2941.051873223916</v>
       </c>
       <c r="AB2" t="n">
-        <v>3838.23912391527</v>
+        <v>4024.076922996539</v>
       </c>
       <c r="AC2" t="n">
-        <v>3471.922968931096</v>
+        <v>3640.02466929303</v>
       </c>
       <c r="AD2" t="n">
-        <v>2805229.766051874</v>
+        <v>2941051.873223916</v>
       </c>
       <c r="AE2" t="n">
-        <v>3838239.12391527</v>
+        <v>4024076.922996539</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.057849568183027e-07</v>
+        <v>1.439476020555236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.09852430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3471922.968931097</v>
+        <v>3640024.669293031</v>
       </c>
     </row>
     <row r="3">
@@ -59810,28 +59810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1759.240333341104</v>
+        <v>1866.006399136458</v>
       </c>
       <c r="AB3" t="n">
-        <v>2407.070236283211</v>
+        <v>2553.152277690809</v>
       </c>
       <c r="AC3" t="n">
-        <v>2177.342831276635</v>
+        <v>2309.483007679725</v>
       </c>
       <c r="AD3" t="n">
-        <v>1759240.333341104</v>
+        <v>1866006.399136458</v>
       </c>
       <c r="AE3" t="n">
-        <v>2407070.236283211</v>
+        <v>2553152.277690809</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.064787264367043e-06</v>
+        <v>1.902164741447991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.5078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2177342.831276635</v>
+        <v>2309483.007679725</v>
       </c>
     </row>
     <row r="4">
@@ -59916,28 +59916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1522.090960078183</v>
+        <v>1619.143261632635</v>
       </c>
       <c r="AB4" t="n">
-        <v>2082.592001492926</v>
+        <v>2215.383242125088</v>
       </c>
       <c r="AC4" t="n">
-        <v>1883.832343806672</v>
+        <v>2003.950174806578</v>
       </c>
       <c r="AD4" t="n">
-        <v>1522090.960078183</v>
+        <v>1619143.261632635</v>
       </c>
       <c r="AE4" t="n">
-        <v>2082592.001492925</v>
+        <v>2215383.242125088</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.157359961703811e-06</v>
+        <v>2.067539109443847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.8671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1883832.343806672</v>
+        <v>2003950.174806578</v>
       </c>
     </row>
     <row r="5">
@@ -60022,28 +60022,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1418.337045721886</v>
+        <v>1505.675672543988</v>
       </c>
       <c r="AB5" t="n">
-        <v>1940.631318570989</v>
+        <v>2060.131880897264</v>
       </c>
       <c r="AC5" t="n">
-        <v>1755.420189219735</v>
+        <v>1863.515785597683</v>
       </c>
       <c r="AD5" t="n">
-        <v>1418337.045721886</v>
+        <v>1505675.672543987</v>
       </c>
       <c r="AE5" t="n">
-        <v>1940631.318570989</v>
+        <v>2060131.880897264</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.205860005308509e-06</v>
+        <v>2.15418089789385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.10763888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1755420.189219735</v>
+        <v>1863515.785597683</v>
       </c>
     </row>
     <row r="6">
@@ -60128,28 +60128,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1346.365407436159</v>
+        <v>1433.78928560428</v>
       </c>
       <c r="AB6" t="n">
-        <v>1842.156547903867</v>
+        <v>1961.773754882791</v>
       </c>
       <c r="AC6" t="n">
-        <v>1666.343712454875</v>
+        <v>1774.544821083535</v>
       </c>
       <c r="AD6" t="n">
-        <v>1346365.407436159</v>
+        <v>1433789.28560428</v>
       </c>
       <c r="AE6" t="n">
-        <v>1842156.547903867</v>
+        <v>1961773.754882791</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.234738661977696e-06</v>
+        <v>2.205770510518645e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.68663194444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1666343.712454875</v>
+        <v>1774544.821083535</v>
       </c>
     </row>
     <row r="7">
@@ -60234,28 +60234,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1298.683608411392</v>
+        <v>1385.936894378921</v>
       </c>
       <c r="AB7" t="n">
-        <v>1776.91620690567</v>
+        <v>1896.300002109747</v>
       </c>
       <c r="AC7" t="n">
-        <v>1607.329818036152</v>
+        <v>1715.319791382161</v>
       </c>
       <c r="AD7" t="n">
-        <v>1298683.608411391</v>
+        <v>1385936.894378921</v>
       </c>
       <c r="AE7" t="n">
-        <v>1776916.20690567</v>
+        <v>1896300.002109747</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.254863161398733e-06</v>
+        <v>2.241721460082961e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.40234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1607329.818036152</v>
+        <v>1715319.791382161</v>
       </c>
     </row>
     <row r="8">
@@ -60340,28 +60340,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1261.898063074933</v>
+        <v>1349.151349042462</v>
       </c>
       <c r="AB8" t="n">
-        <v>1726.584600912603</v>
+        <v>1845.96839611668</v>
       </c>
       <c r="AC8" t="n">
-        <v>1561.801789878211</v>
+        <v>1669.79176322422</v>
       </c>
       <c r="AD8" t="n">
-        <v>1261898.063074933</v>
+        <v>1349151.349042462</v>
       </c>
       <c r="AE8" t="n">
-        <v>1726584.600912604</v>
+        <v>1845968.39611668</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.269151555987669e-06</v>
+        <v>2.267246634273626e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.20486111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1561801.789878211</v>
+        <v>1669791.76322422</v>
       </c>
     </row>
     <row r="9">
@@ -60446,28 +60446,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1229.854797929507</v>
+        <v>1307.565001365277</v>
       </c>
       <c r="AB9" t="n">
-        <v>1682.741591891544</v>
+        <v>1789.06812056458</v>
       </c>
       <c r="AC9" t="n">
-        <v>1522.143096104071</v>
+        <v>1618.321970110773</v>
       </c>
       <c r="AD9" t="n">
-        <v>1229854.797929507</v>
+        <v>1307565.001365277</v>
       </c>
       <c r="AE9" t="n">
-        <v>1682741.591891543</v>
+        <v>1789068.12056458</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.280018785675029e-06</v>
+        <v>2.286660147038357e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.05946180555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1522143.096104071</v>
+        <v>1618321.970110773</v>
       </c>
     </row>
     <row r="10">
@@ -60552,28 +60552,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1192.538206053503</v>
+        <v>1279.876743367053</v>
       </c>
       <c r="AB10" t="n">
-        <v>1631.683384594952</v>
+        <v>1751.183824451678</v>
       </c>
       <c r="AC10" t="n">
-        <v>1475.957812451222</v>
+        <v>1584.053298047944</v>
       </c>
       <c r="AD10" t="n">
-        <v>1192538.206053504</v>
+        <v>1279876.743367053</v>
       </c>
       <c r="AE10" t="n">
-        <v>1631683.384594952</v>
+        <v>1751183.824451678</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.287666095455023e-06</v>
+        <v>2.300321507872798e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.95963541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1475957.812451222</v>
+        <v>1584053.298047944</v>
       </c>
     </row>
     <row r="11">
@@ -60658,28 +60658,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1161.405177101021</v>
+        <v>1248.743714414571</v>
       </c>
       <c r="AB11" t="n">
-        <v>1589.085800889864</v>
+        <v>1708.58624074659</v>
       </c>
       <c r="AC11" t="n">
-        <v>1437.425682348864</v>
+        <v>1545.521167945585</v>
       </c>
       <c r="AD11" t="n">
-        <v>1161405.177101021</v>
+        <v>1248743.714414571</v>
       </c>
       <c r="AE11" t="n">
-        <v>1589085.800889864</v>
+        <v>1708586.24074659</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.295816517720542e-06</v>
+        <v>2.314881642446346e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.85112847222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1437425.682348864</v>
+        <v>1545521.167945585</v>
       </c>
     </row>
     <row r="12">
@@ -60764,28 +60764,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1137.509604701049</v>
+        <v>1224.848142014599</v>
       </c>
       <c r="AB12" t="n">
-        <v>1556.390824533969</v>
+        <v>1675.891264390696</v>
       </c>
       <c r="AC12" t="n">
-        <v>1407.851068648688</v>
+        <v>1515.94655424541</v>
       </c>
       <c r="AD12" t="n">
-        <v>1137509.604701049</v>
+        <v>1224848.142014598</v>
       </c>
       <c r="AE12" t="n">
-        <v>1556390.824533969</v>
+        <v>1675891.264390696</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.300545775084486e-06</v>
+        <v>2.32333011559396e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.79036458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1407851.068648688</v>
+        <v>1515946.55424541</v>
       </c>
     </row>
     <row r="13">
@@ -60870,28 +60870,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1133.221255249763</v>
+        <v>1220.559792563313</v>
       </c>
       <c r="AB13" t="n">
-        <v>1550.523315626095</v>
+        <v>1670.023755482822</v>
       </c>
       <c r="AC13" t="n">
-        <v>1402.543546555881</v>
+        <v>1510.639032152602</v>
       </c>
       <c r="AD13" t="n">
-        <v>1133221.255249763</v>
+        <v>1220559.792563313</v>
       </c>
       <c r="AE13" t="n">
-        <v>1550523.315626095</v>
+        <v>1670023.755482822</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.30255822502659e-06</v>
+        <v>2.326925210550392e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.76432291666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1402543.546555881</v>
+        <v>1510639.032152602</v>
       </c>
     </row>
     <row r="14">
@@ -60976,28 +60976,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1139.466211884073</v>
+        <v>1226.804749197623</v>
       </c>
       <c r="AB14" t="n">
-        <v>1559.0679408012</v>
+        <v>1678.568380657926</v>
       </c>
       <c r="AC14" t="n">
-        <v>1410.27268469673</v>
+        <v>1518.368170293452</v>
       </c>
       <c r="AD14" t="n">
-        <v>1139466.211884073</v>
+        <v>1226804.749197623</v>
       </c>
       <c r="AE14" t="n">
-        <v>1559067.9408012</v>
+        <v>1678568.380657926</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.302457602529484e-06</v>
+        <v>2.32674545580257e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.76649305555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>1410272.68469673</v>
+        <v>1518368.170293452</v>
       </c>
     </row>
   </sheetData>
